--- a/project_morbius/pm_order_flow.xlsx
+++ b/project_morbius/pm_order_flow.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleks\Desktop\Uni\hanna_5-3-2022\project_morbius\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\project_morbius\project_morbius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F1E7C-C364-4F6B-9BDC-818E6D0904EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCADA66-8D88-41D8-91A9-1628305ECD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3765" windowWidth="29040" windowHeight="15840" xr2:uid="{FEC92D2C-8508-4B31-A66A-F6692FFF9B7F}"/>
   </bookViews>
@@ -35,9 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Project Morbius Process Flow</t>
+  </si>
+  <si>
+    <t>Program Flow</t>
+  </si>
+  <si>
+    <t>Operation Test</t>
+  </si>
+  <si>
+    <t>Trade Test</t>
   </si>
 </sst>
 </file>
@@ -848,6 +857,1500 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
@@ -871,7 +2374,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Connect to hardare</a:t>
+            <a:t>Test Hardware Connection</a:t>
           </a:r>
           <a:endParaRPr lang="bg-BG"/>
         </a:p>
@@ -908,13 +2411,13 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Connect to network</a:t>
+            <a:t>Test Network Connection</a:t>
           </a:r>
           <a:endParaRPr lang="bg-BG"/>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{EEA8C894-2A9F-4D30-AD97-CF2D828A3BEE}" type="parTrans" cxnId="{6650428F-2237-41F1-93F6-411244770A14}">
+    <dgm:pt modelId="{ED918709-6185-4E83-B806-9C1A4CB66968}" type="sibTrans" cxnId="{6650428F-2237-41F1-93F6-411244770A14}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -925,7 +2428,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{ED918709-6185-4E83-B806-9C1A4CB66968}" type="sibTrans" cxnId="{6650428F-2237-41F1-93F6-411244770A14}">
+    <dgm:pt modelId="{EEA8C894-2A9F-4D30-AD97-CF2D828A3BEE}" type="parTrans" cxnId="{6650428F-2237-41F1-93F6-411244770A14}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -951,7 +2454,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{31948BAB-1E47-4E9F-BE90-2E6564478D96}" type="parTrans" cxnId="{8F1585E8-381E-41F7-8330-5E3ABECF74AE}">
+    <dgm:pt modelId="{6DD5D9A9-9D43-4E89-8E64-1E068158B3E1}" type="sibTrans" cxnId="{8F1585E8-381E-41F7-8330-5E3ABECF74AE}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -962,7 +2465,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6DD5D9A9-9D43-4E89-8E64-1E068158B3E1}" type="sibTrans" cxnId="{8F1585E8-381E-41F7-8330-5E3ABECF74AE}">
+    <dgm:pt modelId="{31948BAB-1E47-4E9F-BE90-2E6564478D96}" type="parTrans" cxnId="{8F1585E8-381E-41F7-8330-5E3ABECF74AE}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -988,13 +2491,27 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{9405DC95-69D3-4BE9-B6C1-1E0DD03F60A6}" type="sibTrans" cxnId="{3C6B2022-3C17-485C-B20A-A4B18ED41BBC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{0872C3D3-87C7-4E26-B7E4-0DE4BFD51BE2}" type="parTrans" cxnId="{3C6B2022-3C17-485C-B20A-A4B18ED41BBC}">
       <dgm:prSet/>
       <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{9405DC95-69D3-4BE9-B6C1-1E0DD03F60A6}" type="sibTrans" cxnId="{3C6B2022-3C17-485C-B20A-A4B18ED41BBC}">
-      <dgm:prSet/>
-      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A6792AD0-E891-4F37-9B9F-20405B4B8AAD}" type="pres">
       <dgm:prSet presAssocID="{EC53D31F-A8EE-40FD-AF9B-D4FF0ABE06CF}" presName="Name0" presStyleCnt="0">
@@ -1099,6 +2616,1373 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9F62F478-2662-4DDE-964F-9658B4E8AF25}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Connect to API</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A01C8804-6F88-4F0B-BEBD-7C55F312A23C}" type="parTrans" cxnId="{6E2A7153-3E0E-4864-9ADA-E149236D736E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6931284D-DBFF-4C48-A6AC-0C5AC3A306FF}" type="sibTrans" cxnId="{6E2A7153-3E0E-4864-9ADA-E149236D736E}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92E40179-13A6-421D-B013-DB4CD3B68AE1}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Input price data</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2E4D61A5-F1FE-4497-9D9B-49D5177591A4}" type="parTrans" cxnId="{F830E708-EBD9-46A0-AF5B-456576B2C571}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3A73E935-BFE2-4006-BE52-F659B15F056A}" type="sibTrans" cxnId="{F830E708-EBD9-46A0-AF5B-456576B2C571}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Compute 200-Day MA</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92094503-B342-48D7-B97C-45E8786BE055}" type="parTrans" cxnId="{8D65FD67-F5E2-4D86-B092-F170A8A70ACF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B338A22-6298-4C16-9881-F177BE95558D}" type="sibTrans" cxnId="{8D65FD67-F5E2-4D86-B092-F170A8A70ACF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0DE52F85-A7C1-4475-A0D3-896353884AA2}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Trade Based off 200-Day MA</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6D4A16F2-F55F-4616-98CB-FD35BCBA6AFB}" type="parTrans" cxnId="{92C26D10-EEC1-4AAF-850C-B5F145826185}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ADBA02D1-B7B8-445B-844D-9B48B7B5A5A0}" type="sibTrans" cxnId="{92C26D10-EEC1-4AAF-850C-B5F145826185}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2A6762F3-4E94-4F12-B708-5121B7D1404E}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If 2 St. Dev. Above, Short</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4DD09275-EA6F-4B6E-A397-717FB2E3A707}" type="parTrans" cxnId="{E8804B92-A1F9-44E4-8D36-C76F1587FA5F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4D1B1DDB-B1F5-41B6-9B4A-FE9267041202}" type="sibTrans" cxnId="{E8804B92-A1F9-44E4-8D36-C76F1587FA5F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7792B9F3-FC5E-4DBB-AE68-F146E5881C97}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If 2 St. Dev. Below, Long</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D2E48B15-3ADC-42FE-B4E2-25CF0AB070E3}" type="parTrans" cxnId="{02243A83-0BE5-4542-BF2A-41A58D7B6754}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0243317F-7299-4C1F-A359-7BF306A6DADC}" type="sibTrans" cxnId="{02243A83-0BE5-4542-BF2A-41A58D7B6754}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{98229B8B-C400-4BCA-A26E-AEEEC4FA3E3C}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Place Trailing Stop-Loss 2.5 St. Dev. Below if Long, Above if Short</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{357AFCC1-BAF9-4A25-A6AD-5879A8F2D412}" type="parTrans" cxnId="{5B315C52-C324-422A-A64B-6EF7B6414DC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{510F0B36-E182-4902-BBF7-443A6B5163DC}" type="sibTrans" cxnId="{5B315C52-C324-422A-A64B-6EF7B6414DC8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{223C6391-7135-4B96-96CA-543261C04F97}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Place Limit Sell to Execute After Achieving 20% Profit</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1D0DC9C0-D457-4063-AB22-B250CF221E99}" type="parTrans" cxnId="{1001AA6E-13D0-4E99-99AA-06EE2ED777B4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{21039CAC-8C90-4894-86D4-776D84DAAA8C}" type="sibTrans" cxnId="{1001AA6E-13D0-4E99-99AA-06EE2ED777B4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Plae Contingent Stop Loss and Limit Sell</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55026252-B92B-471E-8AA7-8EA8CFC5BF7D}" type="parTrans" cxnId="{314D92A6-F62C-445B-9465-385AD1F6BDD7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{ADD06702-8518-41EB-BE36-BEAE7250310A}" type="sibTrans" cxnId="{314D92A6-F62C-445B-9465-385AD1F6BDD7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Screen Stocks Based of Previous Day's Volatility</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{218B4E31-7635-4D20-825D-F362D3D9647F}" type="parTrans" cxnId="{4381C0B7-E337-4870-AFBF-1815728E05D5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B2FF7DC9-121C-4909-B3D6-57BE7B16394E}" type="sibTrans" cxnId="{4381C0B7-E337-4870-AFBF-1815728E05D5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D6A41D6F-E655-40F1-BF9E-D61F14E11282}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>And Filter by % Change After Market Open</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{62BD4F7D-580A-4EFA-B32F-F1EEA8A2CFAF}" type="parTrans" cxnId="{536BB4CF-3FD5-4B81-BB51-A13E95865475}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D7A3650B-0B00-4686-8E46-D82E567040E0}" type="sibTrans" cxnId="{536BB4CF-3FD5-4B81-BB51-A13E95865475}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Model Liquidity/Volatility</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{25895D96-A684-4B58-92A9-0B2E3B1B4938}" type="parTrans" cxnId="{4A2C5EDF-3955-4BE0-8F96-242E9BFD6651}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C73E76A9-F42B-427E-939B-A50DA488B0D8}" type="sibTrans" cxnId="{4A2C5EDF-3955-4BE0-8F96-242E9BFD6651}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F3DB9F6A-0E7E-4D62-9240-DABEA3FA68BB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Volatility - Use VIX Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4C9F36B8-5079-44FF-9346-84B3EAC0D5C8}" type="parTrans" cxnId="{6EB6CFC8-7F32-4F2C-97E5-DA5E3C44F689}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{06A9FD8E-16E7-42EE-B940-DD5288679B48}" type="sibTrans" cxnId="{6EB6CFC8-7F32-4F2C-97E5-DA5E3C44F689}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D8FEE42D-DEE0-46C7-8580-A66D7168FA49}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Liquidity - Compute VWAP</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1CF43AEE-BA01-42B0-A32F-5E4BEBE4D7B7}" type="parTrans" cxnId="{27D67F1C-3785-4C11-A8AD-1EC52C1600CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{86312244-3240-471D-BDDC-9C3F06CD641A}" type="sibTrans" cxnId="{27D67F1C-3785-4C11-A8AD-1EC52C1600CF}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C351085-4803-421A-8168-97E3D6ACB1D3}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>x Screening Condition</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E8435B50-CDD7-4E18-8B79-AC57C183335B}" type="parTrans" cxnId="{4B04E04B-696F-4237-8A74-8DDB8BA1D212}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9257E696-A23D-47F3-A56F-475E3949D991}" type="sibTrans" cxnId="{4B04E04B-696F-4237-8A74-8DDB8BA1D212}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" type="pres">
+      <dgm:prSet presAssocID="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FAA08017-968B-44E9-AAE4-6699AAE104C9}" type="pres">
+      <dgm:prSet presAssocID="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CFF94D74-EF12-43EA-BDDF-36D6D36F535E}" type="pres">
+      <dgm:prSet presAssocID="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ECA17839-6FDE-43C5-A116-4198C7413A46}" type="pres">
+      <dgm:prSet presAssocID="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" presName="rootText" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{949AE0A8-03BC-4F7C-8BA1-DFAE9D8BF87B}" type="pres">
+      <dgm:prSet presAssocID="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7B655E89-117D-4AC6-882C-5300098685B6}" type="pres">
+      <dgm:prSet presAssocID="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5832BD5A-AC00-4C38-A891-D1574B810F2D}" type="pres">
+      <dgm:prSet presAssocID="{2E4D61A5-F1FE-4497-9D9B-49D5177591A4}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{72AE35B8-0B57-4DA5-B9B2-F6A9A5063B8E}" type="pres">
+      <dgm:prSet presAssocID="{92E40179-13A6-421D-B013-DB4CD3B68AE1}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="0" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5FAB2276-13E0-4FCD-9D27-5D052BA5FB8A}" type="pres">
+      <dgm:prSet presAssocID="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{152BBE25-450C-496F-AAFB-E8FB9FCFE171}" type="pres">
+      <dgm:prSet presAssocID="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6567250C-7329-42F1-8DC1-3FC95A1E0353}" type="pres">
+      <dgm:prSet presAssocID="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" presName="rootText" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9909C8EB-8525-4E38-A5CD-D07A1CF13949}" type="pres">
+      <dgm:prSet presAssocID="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0E57D144-6659-4D74-81E0-9AD220E18490}" type="pres">
+      <dgm:prSet presAssocID="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3A987BDA-8BF3-4C3F-9CED-522BAF372A46}" type="pres">
+      <dgm:prSet presAssocID="{62BD4F7D-580A-4EFA-B32F-F1EEA8A2CFAF}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2260B610-F2FF-43A7-AA9A-374DF8F6965D}" type="pres">
+      <dgm:prSet presAssocID="{D6A41D6F-E655-40F1-BF9E-D61F14E11282}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="1" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9998BDD7-1EC2-4E70-AAF1-15C12854076B}" type="pres">
+      <dgm:prSet presAssocID="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B07F2639-CC53-4E8A-84A8-F0EF7A481551}" type="pres">
+      <dgm:prSet presAssocID="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1C4D2C30-2B7A-4AE7-BB09-5C5AAA1EB20F}" type="pres">
+      <dgm:prSet presAssocID="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" presName="rootText" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{386171E0-85BF-41D1-91DC-F2A6E800A84D}" type="pres">
+      <dgm:prSet presAssocID="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" type="pres">
+      <dgm:prSet presAssocID="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0FF37FEF-DFF7-4956-8A6F-EB4AE26A4579}" type="pres">
+      <dgm:prSet presAssocID="{4C9F36B8-5079-44FF-9346-84B3EAC0D5C8}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{703361BD-F25C-4C96-867B-738F72C8AAC6}" type="pres">
+      <dgm:prSet presAssocID="{F3DB9F6A-0E7E-4D62-9240-DABEA3FA68BB}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="2" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F6237CB6-1976-4283-9EB1-4B4E8181CDA1}" type="pres">
+      <dgm:prSet presAssocID="{1CF43AEE-BA01-42B0-A32F-5E4BEBE4D7B7}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE1DEE65-1B36-4271-88D8-E473FFF5BD5C}" type="pres">
+      <dgm:prSet presAssocID="{D8FEE42D-DEE0-46C7-8580-A66D7168FA49}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="3" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{99CE5A70-B63E-4CD1-A882-BA1A979271BD}" type="pres">
+      <dgm:prSet presAssocID="{E8435B50-CDD7-4E18-8B79-AC57C183335B}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C13813EC-485D-48BC-A1D6-6999CAF4507E}" type="pres">
+      <dgm:prSet presAssocID="{5C351085-4803-421A-8168-97E3D6ACB1D3}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="4" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{98F2F385-CFC8-4A74-8D24-0E74354EB216}" type="pres">
+      <dgm:prSet presAssocID="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{37716C35-37A5-473D-9AAD-57638C5FDAA2}" type="pres">
+      <dgm:prSet presAssocID="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D8307299-3459-4D76-BE58-6E5BD8B1C50D}" type="pres">
+      <dgm:prSet presAssocID="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" presName="rootText" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{83F1F29C-3B0E-4BBD-A525-351CCD8B4349}" type="pres">
+      <dgm:prSet presAssocID="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6E35C76F-BA16-4A35-909B-E5B1528EDB3E}" type="pres">
+      <dgm:prSet presAssocID="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9BE27854-D9A8-4676-BC0D-7A2E859B00E1}" type="pres">
+      <dgm:prSet presAssocID="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0D530498-58C3-431A-A9B6-BC9DAE0CCA49}" type="pres">
+      <dgm:prSet presAssocID="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9757C72F-6897-44DE-9D5D-5C4BFC4036B8}" type="pres">
+      <dgm:prSet presAssocID="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" presName="rootText" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{52741185-F2EB-472C-BAC8-8FA842F6E108}" type="pres">
+      <dgm:prSet presAssocID="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{99180AA6-981F-4481-902B-240CD186825D}" type="pres">
+      <dgm:prSet presAssocID="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EC5FD3AA-8E27-4714-8FEF-190F45B5D576}" type="pres">
+      <dgm:prSet presAssocID="{4DD09275-EA6F-4B6E-A397-717FB2E3A707}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{88F28FD8-8CBC-48B4-91F1-365FBBC977C5}" type="pres">
+      <dgm:prSet presAssocID="{2A6762F3-4E94-4F12-B708-5121B7D1404E}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="5" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1798B801-5352-45D0-9B07-ED1FC388B15C}" type="pres">
+      <dgm:prSet presAssocID="{D2E48B15-3ADC-42FE-B4E2-25CF0AB070E3}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="6" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6C69F401-2A9D-458A-9678-63A2EB446385}" type="pres">
+      <dgm:prSet presAssocID="{7792B9F3-FC5E-4DBB-AE68-F146E5881C97}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="6" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9D2527C7-269D-4B63-BE0C-47579A7254C4}" type="pres">
+      <dgm:prSet presAssocID="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7FA77265-8B28-4E5F-B7DF-C68632B87A49}" type="pres">
+      <dgm:prSet presAssocID="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9FFB5E6B-FDE0-4056-97E9-968F7BDB8C32}" type="pres">
+      <dgm:prSet presAssocID="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" presName="rootText" presStyleLbl="node1" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{75EE1EA6-13F5-47BC-A917-8D7C0E661B28}" type="pres">
+      <dgm:prSet presAssocID="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="5" presStyleCnt="6"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{39340A63-3108-4B5C-9709-7F769A38321C}" type="pres">
+      <dgm:prSet presAssocID="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C9915A97-A14C-4BAA-8390-091415B3693B}" type="pres">
+      <dgm:prSet presAssocID="{357AFCC1-BAF9-4A25-A6AD-5879A8F2D412}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="7" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{04E571B2-22A0-4E4E-911A-BA9013A948AA}" type="pres">
+      <dgm:prSet presAssocID="{98229B8B-C400-4BCA-A26E-AEEEC4FA3E3C}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="7" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C0DAA13E-9C76-4CED-B155-12BEE4CB2689}" type="pres">
+      <dgm:prSet presAssocID="{1D0DC9C0-D457-4063-AB22-B250CF221E99}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="8" presStyleCnt="9"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B2A372B3-48ED-4301-A2A3-C17F9329DF62}" type="pres">
+      <dgm:prSet presAssocID="{223C6391-7135-4B96-96CA-543261C04F97}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="8" presStyleCnt="9">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{20D8F905-93AF-4052-A39B-170A2201576A}" type="presOf" srcId="{7792B9F3-FC5E-4DBB-AE68-F146E5881C97}" destId="{6C69F401-2A9D-458A-9678-63A2EB446385}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F830E708-EBD9-46A0-AF5B-456576B2C571}" srcId="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" destId="{92E40179-13A6-421D-B013-DB4CD3B68AE1}" srcOrd="0" destOrd="0" parTransId="{2E4D61A5-F1FE-4497-9D9B-49D5177591A4}" sibTransId="{3A73E935-BFE2-4006-BE52-F659B15F056A}"/>
+    <dgm:cxn modelId="{92C26D10-EEC1-4AAF-850C-B5F145826185}" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" srcOrd="4" destOrd="0" parTransId="{6D4A16F2-F55F-4616-98CB-FD35BCBA6AFB}" sibTransId="{ADBA02D1-B7B8-445B-844D-9B48B7B5A5A0}"/>
+    <dgm:cxn modelId="{ACC78F13-C38F-449A-9D0A-D429DEDBE284}" type="presOf" srcId="{E8435B50-CDD7-4E18-8B79-AC57C183335B}" destId="{99CE5A70-B63E-4CD1-A882-BA1A979271BD}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C10E5714-9CA7-4081-9799-B1FB7ADCF0C7}" type="presOf" srcId="{98229B8B-C400-4BCA-A26E-AEEEC4FA3E3C}" destId="{04E571B2-22A0-4E4E-911A-BA9013A948AA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{27D67F1C-3785-4C11-A8AD-1EC52C1600CF}" srcId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" destId="{D8FEE42D-DEE0-46C7-8580-A66D7168FA49}" srcOrd="1" destOrd="0" parTransId="{1CF43AEE-BA01-42B0-A32F-5E4BEBE4D7B7}" sibTransId="{86312244-3240-471D-BDDC-9C3F06CD641A}"/>
+    <dgm:cxn modelId="{C5822321-FB25-426A-AB0B-D84BA1F513B1}" type="presOf" srcId="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" destId="{D8307299-3459-4D76-BE58-6E5BD8B1C50D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{EB3DFA21-D927-411E-AFAA-992FFC4ADC2A}" type="presOf" srcId="{1D0DC9C0-D457-4063-AB22-B250CF221E99}" destId="{C0DAA13E-9C76-4CED-B155-12BEE4CB2689}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A4CF1A29-F42D-41DE-B0D0-C5B00839B2C5}" type="presOf" srcId="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" destId="{9909C8EB-8525-4E38-A5CD-D07A1CF13949}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C16B052D-8F51-4C29-A7A6-3FA7A2226E0E}" type="presOf" srcId="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" destId="{9FFB5E6B-FDE0-4056-97E9-968F7BDB8C32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C103E232-E730-4DE4-BCD2-E59BCDE1B4BF}" type="presOf" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7A2C3035-A34E-46CA-A3CF-C4D58735CAAC}" type="presOf" srcId="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" destId="{9757C72F-6897-44DE-9D5D-5C4BFC4036B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{16E0A936-AEFD-4DC3-8EDE-EBEFA0D38781}" type="presOf" srcId="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" destId="{6567250C-7329-42F1-8DC1-3FC95A1E0353}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5BA26D5D-AF4B-4E36-91A2-8430790EADCF}" type="presOf" srcId="{D6A41D6F-E655-40F1-BF9E-D61F14E11282}" destId="{2260B610-F2FF-43A7-AA9A-374DF8F6965D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A552DB62-00F8-4010-B7AF-017E3920518A}" type="presOf" srcId="{1CF43AEE-BA01-42B0-A32F-5E4BEBE4D7B7}" destId="{F6237CB6-1976-4283-9EB1-4B4E8181CDA1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4E445545-3A08-4FD3-85D0-E610A3977CE0}" type="presOf" srcId="{92E40179-13A6-421D-B013-DB4CD3B68AE1}" destId="{72AE35B8-0B57-4DA5-B9B2-F6A9A5063B8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3CFDA766-2A3A-45A3-B1B5-F4535853CB66}" type="presOf" srcId="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" destId="{75EE1EA6-13F5-47BC-A917-8D7C0E661B28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{09D5BD46-7E30-4571-B586-462F564473CB}" type="presOf" srcId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" destId="{1C4D2C30-2B7A-4AE7-BB09-5C5AAA1EB20F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8D65FD67-F5E2-4D86-B092-F170A8A70ACF}" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" srcOrd="3" destOrd="0" parTransId="{92094503-B342-48D7-B97C-45E8786BE055}" sibTransId="{6B338A22-6298-4C16-9881-F177BE95558D}"/>
+    <dgm:cxn modelId="{C9BB5249-B383-4A00-B4DE-AEF625C35D85}" type="presOf" srcId="{5C351085-4803-421A-8168-97E3D6ACB1D3}" destId="{C13813EC-485D-48BC-A1D6-6999CAF4507E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{16638049-27A3-49DE-BA0C-AF47632D7E22}" type="presOf" srcId="{F3DB9F6A-0E7E-4D62-9240-DABEA3FA68BB}" destId="{703361BD-F25C-4C96-867B-738F72C8AAC6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4B04E04B-696F-4237-8A74-8DDB8BA1D212}" srcId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" destId="{5C351085-4803-421A-8168-97E3D6ACB1D3}" srcOrd="2" destOrd="0" parTransId="{E8435B50-CDD7-4E18-8B79-AC57C183335B}" sibTransId="{9257E696-A23D-47F3-A56F-475E3949D991}"/>
+    <dgm:cxn modelId="{021D134C-B900-48B2-BA61-A70ED6282FAB}" type="presOf" srcId="{62BD4F7D-580A-4EFA-B32F-F1EEA8A2CFAF}" destId="{3A987BDA-8BF3-4C3F-9CED-522BAF372A46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1001AA6E-13D0-4E99-99AA-06EE2ED777B4}" srcId="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" destId="{223C6391-7135-4B96-96CA-543261C04F97}" srcOrd="1" destOrd="0" parTransId="{1D0DC9C0-D457-4063-AB22-B250CF221E99}" sibTransId="{21039CAC-8C90-4894-86D4-776D84DAAA8C}"/>
+    <dgm:cxn modelId="{5B315C52-C324-422A-A64B-6EF7B6414DC8}" srcId="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" destId="{98229B8B-C400-4BCA-A26E-AEEEC4FA3E3C}" srcOrd="0" destOrd="0" parTransId="{357AFCC1-BAF9-4A25-A6AD-5879A8F2D412}" sibTransId="{510F0B36-E182-4902-BBF7-443A6B5163DC}"/>
+    <dgm:cxn modelId="{6E2A7153-3E0E-4864-9ADA-E149236D736E}" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" srcOrd="0" destOrd="0" parTransId="{A01C8804-6F88-4F0B-BEBD-7C55F312A23C}" sibTransId="{6931284D-DBFF-4C48-A6AC-0C5AC3A306FF}"/>
+    <dgm:cxn modelId="{5D211277-7908-48D5-947A-9C7F694A3610}" type="presOf" srcId="{4C9F36B8-5079-44FF-9346-84B3EAC0D5C8}" destId="{0FF37FEF-DFF7-4956-8A6F-EB4AE26A4579}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{19D6487D-5B89-40A3-8C95-743AFA174B0F}" type="presOf" srcId="{2A6762F3-4E94-4F12-B708-5121B7D1404E}" destId="{88F28FD8-8CBC-48B4-91F1-365FBBC977C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{02243A83-0BE5-4542-BF2A-41A58D7B6754}" srcId="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" destId="{7792B9F3-FC5E-4DBB-AE68-F146E5881C97}" srcOrd="1" destOrd="0" parTransId="{D2E48B15-3ADC-42FE-B4E2-25CF0AB070E3}" sibTransId="{0243317F-7299-4C1F-A359-7BF306A6DADC}"/>
+    <dgm:cxn modelId="{6451738E-56DE-4B2A-8D20-BFE1A470CF09}" type="presOf" srcId="{4DD09275-EA6F-4B6E-A397-717FB2E3A707}" destId="{EC5FD3AA-8E27-4714-8FEF-190F45B5D576}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E8804B92-A1F9-44E4-8D36-C76F1587FA5F}" srcId="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" destId="{2A6762F3-4E94-4F12-B708-5121B7D1404E}" srcOrd="0" destOrd="0" parTransId="{4DD09275-EA6F-4B6E-A397-717FB2E3A707}" sibTransId="{4D1B1DDB-B1F5-41B6-9B4A-FE9267041202}"/>
+    <dgm:cxn modelId="{71B98596-EC19-4842-B6BD-2B74EAE55927}" type="presOf" srcId="{0DE52F85-A7C1-4475-A0D3-896353884AA2}" destId="{52741185-F2EB-472C-BAC8-8FA842F6E108}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{46AB3E9F-E255-47FD-B0B7-11FCF2ABF55F}" type="presOf" srcId="{357AFCC1-BAF9-4A25-A6AD-5879A8F2D412}" destId="{C9915A97-A14C-4BAA-8390-091415B3693B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{993A1BA4-4305-458E-B354-54780168E09A}" type="presOf" srcId="{D29EB496-95A1-4CD2-9C99-76B18BCDB6E7}" destId="{83F1F29C-3B0E-4BBD-A525-351CCD8B4349}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{314D92A6-F62C-445B-9465-385AD1F6BDD7}" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{D6C0917D-9ED0-4713-9FD1-5B489788EA1B}" srcOrd="5" destOrd="0" parTransId="{55026252-B92B-471E-8AA7-8EA8CFC5BF7D}" sibTransId="{ADD06702-8518-41EB-BE36-BEAE7250310A}"/>
+    <dgm:cxn modelId="{FE7FBAA8-A908-460C-B313-FE94584AE1F8}" type="presOf" srcId="{D8FEE42D-DEE0-46C7-8580-A66D7168FA49}" destId="{AE1DEE65-1B36-4271-88D8-E473FFF5BD5C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1E4EACB0-88E7-44B3-BA29-7484E7867214}" type="presOf" srcId="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" destId="{949AE0A8-03BC-4F7C-8BA1-DFAE9D8BF87B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{04B678B6-77A9-4B66-AE57-E16D6E1E8E80}" type="presOf" srcId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" destId="{386171E0-85BF-41D1-91DC-F2A6E800A84D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4381C0B7-E337-4870-AFBF-1815728E05D5}" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" srcOrd="1" destOrd="0" parTransId="{218B4E31-7635-4D20-825D-F362D3D9647F}" sibTransId="{B2FF7DC9-121C-4909-B3D6-57BE7B16394E}"/>
+    <dgm:cxn modelId="{5698BABF-2B79-4D88-9816-284C6F2EF777}" type="presOf" srcId="{D2E48B15-3ADC-42FE-B4E2-25CF0AB070E3}" destId="{1798B801-5352-45D0-9B07-ED1FC388B15C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C82792C8-A104-4475-8F01-8CE3B25055F3}" type="presOf" srcId="{9F62F478-2662-4DDE-964F-9658B4E8AF25}" destId="{ECA17839-6FDE-43C5-A116-4198C7413A46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{6EB6CFC8-7F32-4F2C-97E5-DA5E3C44F689}" srcId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" destId="{F3DB9F6A-0E7E-4D62-9240-DABEA3FA68BB}" srcOrd="0" destOrd="0" parTransId="{4C9F36B8-5079-44FF-9346-84B3EAC0D5C8}" sibTransId="{06A9FD8E-16E7-42EE-B940-DD5288679B48}"/>
+    <dgm:cxn modelId="{536BB4CF-3FD5-4B81-BB51-A13E95865475}" srcId="{5E1308AD-8ABA-44D7-9152-3994A1DD0A4F}" destId="{D6A41D6F-E655-40F1-BF9E-D61F14E11282}" srcOrd="0" destOrd="0" parTransId="{62BD4F7D-580A-4EFA-B32F-F1EEA8A2CFAF}" sibTransId="{D7A3650B-0B00-4686-8E46-D82E567040E0}"/>
+    <dgm:cxn modelId="{4A2C5EDF-3955-4BE0-8F96-242E9BFD6651}" srcId="{DC76F1B4-739E-40AE-AE45-0F5E757A1552}" destId="{D51077D1-5F65-4743-9A52-CD556BAF45B9}" srcOrd="2" destOrd="0" parTransId="{25895D96-A684-4B58-92A9-0B2E3B1B4938}" sibTransId="{C73E76A9-F42B-427E-939B-A50DA488B0D8}"/>
+    <dgm:cxn modelId="{6B1AB0F2-19E4-451C-84D8-BABDCD01E814}" type="presOf" srcId="{2E4D61A5-F1FE-4497-9D9B-49D5177591A4}" destId="{5832BD5A-AC00-4C38-A891-D1574B810F2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{94D13FFA-4038-4F5B-9BAE-30E23C90F7D8}" type="presOf" srcId="{223C6391-7135-4B96-96CA-543261C04F97}" destId="{B2A372B3-48ED-4301-A2A3-C17F9329DF62}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A225FFD7-8B72-4A5C-B83F-09598EA1113E}" type="presParOf" srcId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" destId="{FAA08017-968B-44E9-AAE4-6699AAE104C9}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3D7AA90A-17DB-4D44-B82A-F94AEC52D1CD}" type="presParOf" srcId="{FAA08017-968B-44E9-AAE4-6699AAE104C9}" destId="{CFF94D74-EF12-43EA-BDDF-36D6D36F535E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{12EB9C96-149A-4BD4-A1FA-36BADCF5EF20}" type="presParOf" srcId="{CFF94D74-EF12-43EA-BDDF-36D6D36F535E}" destId="{ECA17839-6FDE-43C5-A116-4198C7413A46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7C4DE96E-D892-42B4-88D0-ACB8394D48EC}" type="presParOf" srcId="{CFF94D74-EF12-43EA-BDDF-36D6D36F535E}" destId="{949AE0A8-03BC-4F7C-8BA1-DFAE9D8BF87B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{BDBA85B4-C40E-4113-ACB5-43511AE4F4A7}" type="presParOf" srcId="{FAA08017-968B-44E9-AAE4-6699AAE104C9}" destId="{7B655E89-117D-4AC6-882C-5300098685B6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{BE372EB7-1825-4685-A134-35827465D086}" type="presParOf" srcId="{7B655E89-117D-4AC6-882C-5300098685B6}" destId="{5832BD5A-AC00-4C38-A891-D1574B810F2D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{280B879B-A40F-41D6-8F5E-8777D669B260}" type="presParOf" srcId="{7B655E89-117D-4AC6-882C-5300098685B6}" destId="{72AE35B8-0B57-4DA5-B9B2-F6A9A5063B8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E8A0665E-3AAD-4C3B-837C-66544B1B60C9}" type="presParOf" srcId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" destId="{5FAB2276-13E0-4FCD-9D27-5D052BA5FB8A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2FE8FC72-BB48-4326-AD81-7300ACC1DDA6}" type="presParOf" srcId="{5FAB2276-13E0-4FCD-9D27-5D052BA5FB8A}" destId="{152BBE25-450C-496F-AAFB-E8FB9FCFE171}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A8B18540-FDA5-4B61-8CB6-4D9745220CAD}" type="presParOf" srcId="{152BBE25-450C-496F-AAFB-E8FB9FCFE171}" destId="{6567250C-7329-42F1-8DC1-3FC95A1E0353}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{AB74006F-6639-4E32-B999-B387DD5297E3}" type="presParOf" srcId="{152BBE25-450C-496F-AAFB-E8FB9FCFE171}" destId="{9909C8EB-8525-4E38-A5CD-D07A1CF13949}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4C9842E9-ED08-423F-9284-4E174234E5E8}" type="presParOf" srcId="{5FAB2276-13E0-4FCD-9D27-5D052BA5FB8A}" destId="{0E57D144-6659-4D74-81E0-9AD220E18490}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{61DEBCF1-D96A-4D8D-BEC4-8595A7E656CC}" type="presParOf" srcId="{0E57D144-6659-4D74-81E0-9AD220E18490}" destId="{3A987BDA-8BF3-4C3F-9CED-522BAF372A46}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D6F9D8F8-4CCB-4FB0-AF46-22316F600FE9}" type="presParOf" srcId="{0E57D144-6659-4D74-81E0-9AD220E18490}" destId="{2260B610-F2FF-43A7-AA9A-374DF8F6965D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8F91966D-F08B-482A-8481-45B1B3D4477B}" type="presParOf" srcId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" destId="{9998BDD7-1EC2-4E70-AAF1-15C12854076B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2FF15CCD-34FE-46EE-9691-285D9CBEDB6C}" type="presParOf" srcId="{9998BDD7-1EC2-4E70-AAF1-15C12854076B}" destId="{B07F2639-CC53-4E8A-84A8-F0EF7A481551}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{953E9E88-2537-4D80-BF6B-D6CD8B351B19}" type="presParOf" srcId="{B07F2639-CC53-4E8A-84A8-F0EF7A481551}" destId="{1C4D2C30-2B7A-4AE7-BB09-5C5AAA1EB20F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1F89FC18-34C7-46BE-84F4-A7648BABF650}" type="presParOf" srcId="{B07F2639-CC53-4E8A-84A8-F0EF7A481551}" destId="{386171E0-85BF-41D1-91DC-F2A6E800A84D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{94A3929C-E44C-423D-929A-B300D1865837}" type="presParOf" srcId="{9998BDD7-1EC2-4E70-AAF1-15C12854076B}" destId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{947EE7DE-FAC2-4C67-AB4D-B1E21035CFDE}" type="presParOf" srcId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" destId="{0FF37FEF-DFF7-4956-8A6F-EB4AE26A4579}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{0567D8B3-9C4A-4B73-A248-D1AE18F892F1}" type="presParOf" srcId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" destId="{703361BD-F25C-4C96-867B-738F72C8AAC6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CE1BE14F-CD62-4CBA-BDD7-0A0C0B974BF8}" type="presParOf" srcId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" destId="{F6237CB6-1976-4283-9EB1-4B4E8181CDA1}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{688A9E26-32CB-4A7C-8924-A07CF76CF12F}" type="presParOf" srcId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" destId="{AE1DEE65-1B36-4271-88D8-E473FFF5BD5C}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F73B666A-E15A-46A4-8EA8-9414597FB04E}" type="presParOf" srcId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" destId="{99CE5A70-B63E-4CD1-A882-BA1A979271BD}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{BA6C90B1-4CA6-4F60-9C61-EAA63630A503}" type="presParOf" srcId="{649F5811-3DB5-4D49-B621-7FB0B7024F4E}" destId="{C13813EC-485D-48BC-A1D6-6999CAF4507E}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E955E0C5-44BB-403B-93CE-AA2B2D6FA882}" type="presParOf" srcId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" destId="{98F2F385-CFC8-4A74-8D24-0E74354EB216}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1689B40F-0590-45DA-BCA1-8EFE45B2138D}" type="presParOf" srcId="{98F2F385-CFC8-4A74-8D24-0E74354EB216}" destId="{37716C35-37A5-473D-9AAD-57638C5FDAA2}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5F7636F1-6885-4F5E-B668-A4FF6DA5B189}" type="presParOf" srcId="{37716C35-37A5-473D-9AAD-57638C5FDAA2}" destId="{D8307299-3459-4D76-BE58-6E5BD8B1C50D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{0D279C92-E5DA-4E2A-A4F9-5DBFDF67B383}" type="presParOf" srcId="{37716C35-37A5-473D-9AAD-57638C5FDAA2}" destId="{83F1F29C-3B0E-4BBD-A525-351CCD8B4349}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{99E396A5-235E-4C5E-9C8C-A0CFB549EF91}" type="presParOf" srcId="{98F2F385-CFC8-4A74-8D24-0E74354EB216}" destId="{6E35C76F-BA16-4A35-909B-E5B1528EDB3E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F451FB91-FFA9-4122-A028-A8E0C4A033CC}" type="presParOf" srcId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" destId="{9BE27854-D9A8-4676-BC0D-7A2E859B00E1}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3CD10876-C1A6-4EA1-8289-278682D6DD10}" type="presParOf" srcId="{9BE27854-D9A8-4676-BC0D-7A2E859B00E1}" destId="{0D530498-58C3-431A-A9B6-BC9DAE0CCA49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{ADCB275A-4EA5-4A4C-A757-1D008BA300FC}" type="presParOf" srcId="{0D530498-58C3-431A-A9B6-BC9DAE0CCA49}" destId="{9757C72F-6897-44DE-9D5D-5C4BFC4036B8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E10355E0-7016-4B03-8B47-64F85B11B8DF}" type="presParOf" srcId="{0D530498-58C3-431A-A9B6-BC9DAE0CCA49}" destId="{52741185-F2EB-472C-BAC8-8FA842F6E108}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7F28A089-8302-47B5-8DDB-8B3FB182F1E7}" type="presParOf" srcId="{9BE27854-D9A8-4676-BC0D-7A2E859B00E1}" destId="{99180AA6-981F-4481-902B-240CD186825D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5E7C65C6-3785-4312-AE08-009F18DF85B8}" type="presParOf" srcId="{99180AA6-981F-4481-902B-240CD186825D}" destId="{EC5FD3AA-8E27-4714-8FEF-190F45B5D576}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{9992D1F5-C56B-4229-B5A0-6D514B939DCF}" type="presParOf" srcId="{99180AA6-981F-4481-902B-240CD186825D}" destId="{88F28FD8-8CBC-48B4-91F1-365FBBC977C5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D329A7E1-DBDF-4B62-8BBC-1F36C7E023B4}" type="presParOf" srcId="{99180AA6-981F-4481-902B-240CD186825D}" destId="{1798B801-5352-45D0-9B07-ED1FC388B15C}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{6998D315-3978-428D-85C7-2C49D94FA2C0}" type="presParOf" srcId="{99180AA6-981F-4481-902B-240CD186825D}" destId="{6C69F401-2A9D-458A-9678-63A2EB446385}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8DC43944-B02D-4313-AE08-E10C975108BC}" type="presParOf" srcId="{B1ABF907-7F78-4310-9C57-0A03AC6E9251}" destId="{9D2527C7-269D-4B63-BE0C-47579A7254C4}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{79551C09-BCAA-43C3-BC99-C695491F136A}" type="presParOf" srcId="{9D2527C7-269D-4B63-BE0C-47579A7254C4}" destId="{7FA77265-8B28-4E5F-B7DF-C68632B87A49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{02129B21-B117-4560-A652-0F3557F4E786}" type="presParOf" srcId="{7FA77265-8B28-4E5F-B7DF-C68632B87A49}" destId="{9FFB5E6B-FDE0-4056-97E9-968F7BDB8C32}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{293D50A3-4745-4442-B4BE-0E8F3B29FE36}" type="presParOf" srcId="{7FA77265-8B28-4E5F-B7DF-C68632B87A49}" destId="{75EE1EA6-13F5-47BC-A917-8D7C0E661B28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{0062B3CE-32D5-4956-AC15-E6B829EA0BE1}" type="presParOf" srcId="{9D2527C7-269D-4B63-BE0C-47579A7254C4}" destId="{39340A63-3108-4B5C-9709-7F769A38321C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4223AEC8-5266-4C9B-BB94-15046E1455F8}" type="presParOf" srcId="{39340A63-3108-4B5C-9709-7F769A38321C}" destId="{C9915A97-A14C-4BAA-8390-091415B3693B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{08CF0998-500A-4785-BCEB-4EB52D9282B2}" type="presParOf" srcId="{39340A63-3108-4B5C-9709-7F769A38321C}" destId="{04E571B2-22A0-4E4E-911A-BA9013A948AA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{35F29C6E-6564-482A-8543-BBC5AFF13ABF}" type="presParOf" srcId="{39340A63-3108-4B5C-9709-7F769A38321C}" destId="{C0DAA13E-9C76-4CED-B155-12BEE4CB2689}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{B42752F3-309D-40FE-B558-08CA8BCFC373}" type="presParOf" srcId="{39340A63-3108-4B5C-9709-7F769A38321C}" destId="{B2A372B3-48ED-4301-A2A3-C17F9329DF62}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId10" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{961F9A24-6830-4F2E-8B5D-2BF750652CF7}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Backtest MA Trading Strategy (Python)</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B4DF48AB-8F97-43EC-96C0-A177359EACF3}" type="parTrans" cxnId="{54281730-E1B0-4C60-8203-41ED57C9E4B4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2ABE7D94-30FD-48D9-A1D5-AD5E9B7DF8F3}" type="sibTrans" cxnId="{54281730-E1B0-4C60-8203-41ED57C9E4B4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D3FBB1E3-C0AE-4416-9D04-A9E30B896A7B}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>80/20% training, test</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2088BFC9-1C78-49BD-AF2D-344BD1FFBFC9}" type="parTrans" cxnId="{409EEF20-6079-4432-92BD-9B578DC88C4B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{91E4C88D-E76B-46C3-BF26-5423B2378CF2}" type="sibTrans" cxnId="{409EEF20-6079-4432-92BD-9B578DC88C4B}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0E171BBA-3329-40E8-80A4-E2C1AB0637FB}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If 1% Profit, Proceed</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{77B04B89-68D7-47D1-8D80-4FC81B44F6D7}" type="parTrans" cxnId="{E1392526-85CC-47EA-9A88-40AE8C3E3CAC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8CB85540-87F6-493A-B5F8-8B805C273FA1}" type="sibTrans" cxnId="{E1392526-85CC-47EA-9A88-40AE8C3E3CAC}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Live Paper Trade Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{81622AC1-5A56-44A4-ADD0-1FB6DE315F97}" type="parTrans" cxnId="{4B423C7C-43C7-44B2-A879-D2AF866352A8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E108B67B-45CE-46F7-8A94-4F5F57E44343}" type="sibTrans" cxnId="{4B423C7C-43C7-44B2-A879-D2AF866352A8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4B252E75-5C87-458A-88D6-985B1FDF0865}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Test over 1 week</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1470019D-E8AF-4C48-B916-EFF0D8303047}" type="parTrans" cxnId="{00E96AE5-1FBA-4C9F-97B5-429280BF8EA3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5EA51DD8-4114-4916-8B46-C34D8D91974B}" type="sibTrans" cxnId="{00E96AE5-1FBA-4C9F-97B5-429280BF8EA3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4295D3E9-2A18-43D8-9D16-72F55A56D990}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Calculate Profit and Slippage</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2FFEFD73-F741-4A87-9DFF-123CA24ADCBB}" type="parTrans" cxnId="{C57B44F1-186F-4549-A061-F2DCE4265E36}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{434305ED-BD34-40BA-AF2F-CC6E7F2EC1E4}" type="sibTrans" cxnId="{C57B44F1-186F-4549-A061-F2DCE4265E36}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{146139DE-C49A-4900-85F3-BD390E125745}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Formulate Prescriptions</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FAE54CAB-2F68-4BB8-A79E-CD16CB22C6AC}" type="parTrans" cxnId="{1644E7FE-B9EA-46BD-8853-F999A5530027}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EB1AA526-60C5-4759-A27E-3FCE69E5ADFB}" type="sibTrans" cxnId="{1644E7FE-B9EA-46BD-8853-F999A5530027}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3A2BB478-265F-4AA1-B989-927DEBA15653}" type="pres">
+      <dgm:prSet presAssocID="{961F9A24-6830-4F2E-8B5D-2BF750652CF7}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA5F882F-6E50-4A1E-88FB-33623A6EF001}" type="pres">
+      <dgm:prSet presAssocID="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4FC44D0C-C5D5-48DF-9000-4390FD1FB0E4}" type="pres">
+      <dgm:prSet presAssocID="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{065287F3-5AEC-4A8F-8BD3-75DBDB6F7D88}" type="pres">
+      <dgm:prSet presAssocID="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" presName="rootText" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CAD95CF5-28BA-4B39-BC41-71F92C9F6A7A}" type="pres">
+      <dgm:prSet presAssocID="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{866B3303-F18E-4D0E-8CF0-DB88264A6EB3}" type="pres">
+      <dgm:prSet presAssocID="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{92AB6F4D-B03C-4F46-B922-4A77C24121EE}" type="pres">
+      <dgm:prSet presAssocID="{2088BFC9-1C78-49BD-AF2D-344BD1FFBFC9}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E385A1E0-6633-498D-9665-C4203A892090}" type="pres">
+      <dgm:prSet presAssocID="{D3FBB1E3-C0AE-4416-9D04-A9E30B896A7B}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="0" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E4B580D5-5FD6-4203-82AC-86AB67852027}" type="pres">
+      <dgm:prSet presAssocID="{77B04B89-68D7-47D1-8D80-4FC81B44F6D7}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8A83030D-4E34-40BA-A36A-2425D3FB3D39}" type="pres">
+      <dgm:prSet presAssocID="{0E171BBA-3329-40E8-80A4-E2C1AB0637FB}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="1" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DB720B9D-EDC1-46B3-8E71-07035801ABFE}" type="pres">
+      <dgm:prSet presAssocID="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B664951A-8415-4DB8-B9E8-218C4A377E8B}" type="pres">
+      <dgm:prSet presAssocID="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{735442A9-51A8-40CE-A18B-66893C5068DA}" type="pres">
+      <dgm:prSet presAssocID="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" presName="rootText" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B15EBF77-37E4-4387-BD39-6D2E0E9006E2}" type="pres">
+      <dgm:prSet presAssocID="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{51D4264E-D73D-40B9-9F12-8750967A28BB}" type="pres">
+      <dgm:prSet presAssocID="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA352568-3AC6-426B-8A25-825FE6C137C5}" type="pres">
+      <dgm:prSet presAssocID="{1470019D-E8AF-4C48-B916-EFF0D8303047}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3537FB07-DB68-4B76-A573-2DC4B370A620}" type="pres">
+      <dgm:prSet presAssocID="{4B252E75-5C87-458A-88D6-985B1FDF0865}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="2" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{87AD3F14-AA58-44D6-92E7-AA23128CE4D4}" type="pres">
+      <dgm:prSet presAssocID="{2FFEFD73-F741-4A87-9DFF-123CA24ADCBB}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BF23B86A-2C09-4DB6-B674-4344C4F4BCCA}" type="pres">
+      <dgm:prSet presAssocID="{4295D3E9-2A18-43D8-9D16-72F55A56D990}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4242E78A-7705-48FC-9DCC-E0039AC036BD}" type="pres">
+      <dgm:prSet presAssocID="{146139DE-C49A-4900-85F3-BD390E125745}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{55AEF86F-E3CF-4828-B3CB-4F5DCDBB12B4}" type="pres">
+      <dgm:prSet presAssocID="{146139DE-C49A-4900-85F3-BD390E125745}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F22B1D3B-FC92-4F16-939A-1D7E6A444F92}" type="pres">
+      <dgm:prSet presAssocID="{146139DE-C49A-4900-85F3-BD390E125745}" presName="rootText" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BBD7C6CD-F0E4-43B6-ABE6-BE1B5DB48806}" type="pres">
+      <dgm:prSet presAssocID="{146139DE-C49A-4900-85F3-BD390E125745}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BA35831A-F931-4314-A4FC-1649F518A993}" type="pres">
+      <dgm:prSet presAssocID="{146139DE-C49A-4900-85F3-BD390E125745}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{A1908307-A286-4301-A12B-FEBF60CF046B}" type="presOf" srcId="{961F9A24-6830-4F2E-8B5D-2BF750652CF7}" destId="{3A2BB478-265F-4AA1-B989-927DEBA15653}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2420A114-2279-4ADD-9047-AF7AFB2E919B}" type="presOf" srcId="{4295D3E9-2A18-43D8-9D16-72F55A56D990}" destId="{BF23B86A-2C09-4DB6-B674-4344C4F4BCCA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FE60A115-BA21-462D-AAB5-8F48F03D67F1}" type="presOf" srcId="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" destId="{B15EBF77-37E4-4387-BD39-6D2E0E9006E2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{409EEF20-6079-4432-92BD-9B578DC88C4B}" srcId="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" destId="{D3FBB1E3-C0AE-4416-9D04-A9E30B896A7B}" srcOrd="0" destOrd="0" parTransId="{2088BFC9-1C78-49BD-AF2D-344BD1FFBFC9}" sibTransId="{91E4C88D-E76B-46C3-BF26-5423B2378CF2}"/>
+    <dgm:cxn modelId="{606E0926-2191-4B2D-9118-23FD2F5268F7}" type="presOf" srcId="{77B04B89-68D7-47D1-8D80-4FC81B44F6D7}" destId="{E4B580D5-5FD6-4203-82AC-86AB67852027}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{E1392526-85CC-47EA-9A88-40AE8C3E3CAC}" srcId="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" destId="{0E171BBA-3329-40E8-80A4-E2C1AB0637FB}" srcOrd="1" destOrd="0" parTransId="{77B04B89-68D7-47D1-8D80-4FC81B44F6D7}" sibTransId="{8CB85540-87F6-493A-B5F8-8B805C273FA1}"/>
+    <dgm:cxn modelId="{54281730-E1B0-4C60-8203-41ED57C9E4B4}" srcId="{961F9A24-6830-4F2E-8B5D-2BF750652CF7}" destId="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" srcOrd="0" destOrd="0" parTransId="{B4DF48AB-8F97-43EC-96C0-A177359EACF3}" sibTransId="{2ABE7D94-30FD-48D9-A1D5-AD5E9B7DF8F3}"/>
+    <dgm:cxn modelId="{C5327566-025E-4A7F-83C9-452F90CA0259}" type="presOf" srcId="{4B252E75-5C87-458A-88D6-985B1FDF0865}" destId="{3537FB07-DB68-4B76-A573-2DC4B370A620}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{9C53AF68-CF2D-4092-9064-0E0DE55DE836}" type="presOf" srcId="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" destId="{CAD95CF5-28BA-4B39-BC41-71F92C9F6A7A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FFADDE4E-F2AD-4E0E-BA29-13D992A272D8}" type="presOf" srcId="{D3FBB1E3-C0AE-4416-9D04-A9E30B896A7B}" destId="{E385A1E0-6633-498D-9665-C4203A892090}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FA4E4D78-B014-4377-B124-9BF7ED758766}" type="presOf" srcId="{2088BFC9-1C78-49BD-AF2D-344BD1FFBFC9}" destId="{92AB6F4D-B03C-4F46-B922-4A77C24121EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4B423C7C-43C7-44B2-A879-D2AF866352A8}" srcId="{961F9A24-6830-4F2E-8B5D-2BF750652CF7}" destId="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" srcOrd="1" destOrd="0" parTransId="{81622AC1-5A56-44A4-ADD0-1FB6DE315F97}" sibTransId="{E108B67B-45CE-46F7-8A94-4F5F57E44343}"/>
+    <dgm:cxn modelId="{603FFF8D-9E59-4871-876C-90712F5F86D8}" type="presOf" srcId="{146139DE-C49A-4900-85F3-BD390E125745}" destId="{BBD7C6CD-F0E4-43B6-ABE6-BE1B5DB48806}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{268D6FAB-87A1-4274-B41F-C0466BE81C08}" type="presOf" srcId="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" destId="{735442A9-51A8-40CE-A18B-66893C5068DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{33A740B0-49A4-48CC-894D-59464AC68CD9}" type="presOf" srcId="{0E171BBA-3329-40E8-80A4-E2C1AB0637FB}" destId="{8A83030D-4E34-40BA-A36A-2425D3FB3D39}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{28A1FBC2-760F-46F2-8690-EEDA87D0FAAC}" type="presOf" srcId="{1470019D-E8AF-4C48-B916-EFF0D8303047}" destId="{EA352568-3AC6-426B-8A25-825FE6C137C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{9E64DAC3-C523-4580-ABC3-1AF2E1A133F7}" type="presOf" srcId="{146139DE-C49A-4900-85F3-BD390E125745}" destId="{F22B1D3B-FC92-4F16-939A-1D7E6A444F92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F16BAAD4-AC62-4032-938F-46C5E7F1D035}" type="presOf" srcId="{2FFEFD73-F741-4A87-9DFF-123CA24ADCBB}" destId="{87AD3F14-AA58-44D6-92E7-AA23128CE4D4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{00E96AE5-1FBA-4C9F-97B5-429280BF8EA3}" srcId="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" destId="{4B252E75-5C87-458A-88D6-985B1FDF0865}" srcOrd="0" destOrd="0" parTransId="{1470019D-E8AF-4C48-B916-EFF0D8303047}" sibTransId="{5EA51DD8-4114-4916-8B46-C34D8D91974B}"/>
+    <dgm:cxn modelId="{C57B44F1-186F-4549-A061-F2DCE4265E36}" srcId="{5184BA6D-A0B5-4BA8-801D-79B0E34DB080}" destId="{4295D3E9-2A18-43D8-9D16-72F55A56D990}" srcOrd="1" destOrd="0" parTransId="{2FFEFD73-F741-4A87-9DFF-123CA24ADCBB}" sibTransId="{434305ED-BD34-40BA-AF2F-CC6E7F2EC1E4}"/>
+    <dgm:cxn modelId="{435FB5FB-DD6F-4A60-8C2D-7B79F512959C}" type="presOf" srcId="{96F4F27A-E56F-4089-BF9A-DC3EDADA6250}" destId="{065287F3-5AEC-4A8F-8BD3-75DBDB6F7D88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1644E7FE-B9EA-46BD-8853-F999A5530027}" srcId="{961F9A24-6830-4F2E-8B5D-2BF750652CF7}" destId="{146139DE-C49A-4900-85F3-BD390E125745}" srcOrd="2" destOrd="0" parTransId="{FAE54CAB-2F68-4BB8-A79E-CD16CB22C6AC}" sibTransId="{EB1AA526-60C5-4759-A27E-3FCE69E5ADFB}"/>
+    <dgm:cxn modelId="{D7F7244D-7F61-4299-8305-FDDFE4E554E5}" type="presParOf" srcId="{3A2BB478-265F-4AA1-B989-927DEBA15653}" destId="{EA5F882F-6E50-4A1E-88FB-33623A6EF001}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{C92EB922-B604-4853-9DC2-ECCBD23A1B4D}" type="presParOf" srcId="{EA5F882F-6E50-4A1E-88FB-33623A6EF001}" destId="{4FC44D0C-C5D5-48DF-9000-4390FD1FB0E4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8248EEC4-7919-4889-BF38-F08774135F55}" type="presParOf" srcId="{4FC44D0C-C5D5-48DF-9000-4390FD1FB0E4}" destId="{065287F3-5AEC-4A8F-8BD3-75DBDB6F7D88}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{6B06372F-AEE7-4CD0-B402-62CE412585D7}" type="presParOf" srcId="{4FC44D0C-C5D5-48DF-9000-4390FD1FB0E4}" destId="{CAD95CF5-28BA-4B39-BC41-71F92C9F6A7A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D48FF8B3-B1E9-46A1-97BD-3997FD19E1AB}" type="presParOf" srcId="{EA5F882F-6E50-4A1E-88FB-33623A6EF001}" destId="{866B3303-F18E-4D0E-8CF0-DB88264A6EB3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{B4EA6AAF-E268-450F-A2D4-99D9B49A973B}" type="presParOf" srcId="{866B3303-F18E-4D0E-8CF0-DB88264A6EB3}" destId="{92AB6F4D-B03C-4F46-B922-4A77C24121EE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{13050BB5-6B33-4969-A8E6-C30276BAA6B4}" type="presParOf" srcId="{866B3303-F18E-4D0E-8CF0-DB88264A6EB3}" destId="{E385A1E0-6633-498D-9665-C4203A892090}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8A86F1AC-BC1B-4AC7-A983-740FF37E1682}" type="presParOf" srcId="{866B3303-F18E-4D0E-8CF0-DB88264A6EB3}" destId="{E4B580D5-5FD6-4203-82AC-86AB67852027}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{9D6E29DA-0D3E-495E-BB47-FE050C917DA0}" type="presParOf" srcId="{866B3303-F18E-4D0E-8CF0-DB88264A6EB3}" destId="{8A83030D-4E34-40BA-A36A-2425D3FB3D39}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8576DA7B-55C5-497B-AC96-96E9BDA9B78F}" type="presParOf" srcId="{3A2BB478-265F-4AA1-B989-927DEBA15653}" destId="{DB720B9D-EDC1-46B3-8E71-07035801ABFE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2D37BDCA-5507-4D29-87D2-C9B7C94737C8}" type="presParOf" srcId="{DB720B9D-EDC1-46B3-8E71-07035801ABFE}" destId="{B664951A-8415-4DB8-B9E8-218C4A377E8B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3B13FDB3-A7E3-46E7-9650-B4912ED80D4E}" type="presParOf" srcId="{B664951A-8415-4DB8-B9E8-218C4A377E8B}" destId="{735442A9-51A8-40CE-A18B-66893C5068DA}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1B4A6B84-9810-400D-BF47-B73B97AE9BE8}" type="presParOf" srcId="{B664951A-8415-4DB8-B9E8-218C4A377E8B}" destId="{B15EBF77-37E4-4387-BD39-6D2E0E9006E2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{242A6E57-6FF2-40CD-AB0C-75BC24437D2B}" type="presParOf" srcId="{DB720B9D-EDC1-46B3-8E71-07035801ABFE}" destId="{51D4264E-D73D-40B9-9F12-8750967A28BB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A78F06BB-D3EF-438B-8EDA-2014FE501D37}" type="presParOf" srcId="{51D4264E-D73D-40B9-9F12-8750967A28BB}" destId="{EA352568-3AC6-426B-8A25-825FE6C137C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5580237B-6FBC-4D04-A7FA-2F134DDBCFC6}" type="presParOf" srcId="{51D4264E-D73D-40B9-9F12-8750967A28BB}" destId="{3537FB07-DB68-4B76-A573-2DC4B370A620}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A264E9E8-70D8-465C-9A63-C0FBF09DACE0}" type="presParOf" srcId="{51D4264E-D73D-40B9-9F12-8750967A28BB}" destId="{87AD3F14-AA58-44D6-92E7-AA23128CE4D4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7BA32D42-72C8-4903-8ED4-1A98A6881B79}" type="presParOf" srcId="{51D4264E-D73D-40B9-9F12-8750967A28BB}" destId="{BF23B86A-2C09-4DB6-B674-4344C4F4BCCA}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7570796F-D1EB-4252-9D6C-41DBDA926DA1}" type="presParOf" srcId="{3A2BB478-265F-4AA1-B989-927DEBA15653}" destId="{4242E78A-7705-48FC-9DCC-E0039AC036BD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7B43ABF8-7684-4F38-8A97-E80944303350}" type="presParOf" srcId="{4242E78A-7705-48FC-9DCC-E0039AC036BD}" destId="{55AEF86F-E3CF-4828-B3CB-4F5DCDBB12B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3A4A79D2-D4DD-49DE-ABE8-00C6E66B7DAF}" type="presParOf" srcId="{55AEF86F-E3CF-4828-B3CB-4F5DCDBB12B4}" destId="{F22B1D3B-FC92-4F16-939A-1D7E6A444F92}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{66181C08-3168-4C49-8536-68523FAA3975}" type="presParOf" srcId="{55AEF86F-E3CF-4828-B3CB-4F5DCDBB12B4}" destId="{BBD7C6CD-F0E4-43B6-ABE6-BE1B5DB48806}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{DA4E5A4A-897F-4833-A775-FDEC3085B3CC}" type="presParOf" srcId="{4242E78A-7705-48FC-9DCC-E0039AC036BD}" destId="{BA35831A-F931-4314-A4FC-1649F518A993}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId15" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -1114,8 +3998,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2616" y="883686"/>
-          <a:ext cx="1143825" cy="975826"/>
+          <a:off x="2616" y="948027"/>
+          <a:ext cx="1143825" cy="847145"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1159,12 +4043,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1177,15 +4061,15 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" kern="1200"/>
-            <a:t>Connect to hardare</a:t>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Test Hardware Connection</a:t>
           </a:r>
-          <a:endParaRPr lang="bg-BG" sz="1800" kern="1200"/>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="31197" y="912267"/>
-        <a:ext cx="1086663" cy="918664"/>
+        <a:off x="27428" y="972839"/>
+        <a:ext cx="1094201" cy="797521"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4D1E188E-849E-4646-BF61-A8CB27D16008}">
@@ -1265,8 +4149,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1603971" y="883686"/>
-          <a:ext cx="1143825" cy="975826"/>
+          <a:off x="1603971" y="948027"/>
+          <a:ext cx="1143825" cy="847145"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1310,12 +4194,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1328,15 +4212,15 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" kern="1200"/>
-            <a:t>Connect to network</a:t>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Test Network Connection</a:t>
           </a:r>
-          <a:endParaRPr lang="bg-BG" sz="1800" kern="1200"/>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1632552" y="912267"/>
-        <a:ext cx="1086663" cy="918664"/>
+        <a:off x="1628783" y="972839"/>
+        <a:ext cx="1094201" cy="797521"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D88DD2D0-345B-4AEB-83CE-672AB2AE93D6}">
@@ -1416,8 +4300,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3205327" y="883686"/>
-          <a:ext cx="1143825" cy="975826"/>
+          <a:off x="3205327" y="948027"/>
+          <a:ext cx="1143825" cy="847145"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1461,12 +4345,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1479,15 +4363,15 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
             <a:t>Connect via API</a:t>
           </a:r>
-          <a:endParaRPr lang="bg-BG" sz="1800" kern="1200"/>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3233908" y="912267"/>
-        <a:ext cx="1086663" cy="918664"/>
+        <a:off x="3230139" y="972839"/>
+        <a:ext cx="1094201" cy="797521"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D63CECCB-702D-42B2-AFFA-2134744ACE18}">
@@ -1567,8 +4451,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4806683" y="883686"/>
-          <a:ext cx="1143825" cy="975826"/>
+          <a:off x="4806683" y="948027"/>
+          <a:ext cx="1143825" cy="847145"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1612,12 +4496,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="68580" tIns="68580" rIns="68580" bIns="68580" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="60960" tIns="60960" rIns="60960" bIns="60960" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="800100">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1630,15 +4514,2575 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" sz="1800" kern="1200"/>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
             <a:t>Place order</a:t>
           </a:r>
-          <a:endParaRPr lang="bg-BG" sz="1800" kern="1200"/>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4835264" y="912267"/>
-        <a:ext cx="1086663" cy="918664"/>
+        <a:off x="4831495" y="972839"/>
+        <a:ext cx="1094201" cy="797521"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{ECA17839-6FDE-43C5-A116-4198C7413A46}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7569" y="330353"/>
+          <a:ext cx="1219739" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Connect to API</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="25431" y="348215"/>
+        <a:ext cx="1184015" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5832BD5A-AC00-4C38-A891-D1574B810F2D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="129543" y="940223"/>
+          <a:ext cx="121973" cy="457402"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="457402"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="457402"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{72AE35B8-0B57-4DA5-B9B2-F6A9A5063B8E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="251517" y="1092690"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Input price data</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="269379" y="1110552"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6567250C-7329-42F1-8DC1-3FC95A1E0353}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1532243" y="330353"/>
+          <a:ext cx="1219739" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Screen Stocks Based of Previous Day's Volatility</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1550105" y="348215"/>
+        <a:ext cx="1184015" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3A987BDA-8BF3-4C3F-9CED-522BAF372A46}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1654217" y="940223"/>
+          <a:ext cx="121973" cy="457402"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="457402"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="457402"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{2260B610-F2FF-43A7-AA9A-374DF8F6965D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1776191" y="1092690"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>And Filter by % Change After Market Open</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1794053" y="1110552"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1C4D2C30-2B7A-4AE7-BB09-5C5AAA1EB20F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3056918" y="330353"/>
+          <a:ext cx="1219739" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Model Liquidity/Volatility</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3074780" y="348215"/>
+        <a:ext cx="1184015" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0FF37FEF-DFF7-4956-8A6F-EB4AE26A4579}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3178892" y="940223"/>
+          <a:ext cx="121973" cy="457402"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="457402"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="457402"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{703361BD-F25C-4C96-867B-738F72C8AAC6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3300865" y="1092690"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Volatility - Use VIX Index</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3318727" y="1110552"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F6237CB6-1976-4283-9EB1-4B4E8181CDA1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3178892" y="940223"/>
+          <a:ext cx="121973" cy="1219739"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1219739"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="1219739"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{AE1DEE65-1B36-4271-88D8-E473FFF5BD5C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3300865" y="1855027"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Liquidity - Compute VWAP</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3318727" y="1872889"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{99CE5A70-B63E-4CD1-A882-BA1A979271BD}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3178892" y="940223"/>
+          <a:ext cx="121973" cy="1982076"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1982076"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="1982076"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C13813EC-485D-48BC-A1D6-6999CAF4507E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3300865" y="2617364"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>x Screening Condition</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3318727" y="2635226"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D8307299-3459-4D76-BE58-6E5BD8B1C50D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4581592" y="330353"/>
+          <a:ext cx="1219739" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Compute 200-Day MA</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4599454" y="348215"/>
+        <a:ext cx="1184015" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9757C72F-6897-44DE-9D5D-5C4BFC4036B8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6106266" y="330353"/>
+          <a:ext cx="1219739" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Trade Based off 200-Day MA</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6124128" y="348215"/>
+        <a:ext cx="1184015" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EC5FD3AA-8E27-4714-8FEF-190F45B5D576}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6228240" y="940223"/>
+          <a:ext cx="121973" cy="457402"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="457402"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="457402"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{88F28FD8-8CBC-48B4-91F1-365FBBC977C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6350214" y="1092690"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>If 2 St. Dev. Above, Short</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6368076" y="1110552"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1798B801-5352-45D0-9B07-ED1FC388B15C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6228240" y="940223"/>
+          <a:ext cx="121973" cy="1219739"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1219739"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="1219739"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{6C69F401-2A9D-458A-9678-63A2EB446385}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6350214" y="1855027"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>If 2 St. Dev. Below, Long</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6368076" y="1872889"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9FFB5E6B-FDE0-4056-97E9-968F7BDB8C32}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7630941" y="330353"/>
+          <a:ext cx="1219739" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="22860" tIns="15240" rIns="22860" bIns="15240" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="533400">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" kern="1200"/>
+            <a:t>Plae Contingent Stop Loss and Limit Sell</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1200" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7648803" y="348215"/>
+        <a:ext cx="1184015" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C9915A97-A14C-4BAA-8390-091415B3693B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7752915" y="940223"/>
+          <a:ext cx="121973" cy="457402"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="457402"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="457402"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{04E571B2-22A0-4E4E-911A-BA9013A948AA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7874889" y="1092690"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Place Trailing Stop-Loss 2.5 St. Dev. Below if Long, Above if Short</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7892751" y="1110552"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C0DAA13E-9C76-4CED-B155-12BEE4CB2689}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7752915" y="940223"/>
+          <a:ext cx="121973" cy="1219739"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1219739"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="121973" y="1219739"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B2A372B3-48ED-4301-A2A3-C17F9329DF62}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7874889" y="1855027"/>
+          <a:ext cx="975791" cy="609869"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="11430" rIns="17145" bIns="11430" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="400050">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" kern="1200"/>
+            <a:t>Place Limit Sell to Execute After Achieving 20% Profit</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="900" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7892751" y="1872889"/>
+        <a:ext cx="940067" cy="574145"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{065287F3-5AEC-4A8F-8BD3-75DBDB6F7D88}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="53236" y="424"/>
+          <a:ext cx="1567057" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Backtest MA Trading Strategy (Python)</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="76185" y="23373"/>
+        <a:ext cx="1521159" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{92AB6F4D-B03C-4F46-B922-4A77C24121EE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="209942" y="783953"/>
+          <a:ext cx="156705" cy="587646"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="587646"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="156705" y="587646"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E385A1E0-6633-498D-9665-C4203A892090}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="366647" y="979835"/>
+          <a:ext cx="1253646" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>80/20% training, test</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="389596" y="1002784"/>
+        <a:ext cx="1207748" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E4B580D5-5FD6-4203-82AC-86AB67852027}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="209942" y="783953"/>
+          <a:ext cx="156705" cy="1567057"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1567057"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="156705" y="1567057"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8A83030D-4E34-40BA-A36A-2425D3FB3D39}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="366647" y="1959246"/>
+          <a:ext cx="1253646" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>If 1% Profit, Proceed</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="389596" y="1982195"/>
+        <a:ext cx="1207748" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{735442A9-51A8-40CE-A18B-66893C5068DA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2012058" y="424"/>
+          <a:ext cx="1567057" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Live Paper Trade Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2035007" y="23373"/>
+        <a:ext cx="1521159" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EA352568-3AC6-426B-8A25-825FE6C137C5}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2168764" y="783953"/>
+          <a:ext cx="156705" cy="587646"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="587646"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="156705" y="587646"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{3537FB07-DB68-4B76-A573-2DC4B370A620}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2325470" y="979835"/>
+          <a:ext cx="1253646" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Test over 1 week</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2348419" y="1002784"/>
+        <a:ext cx="1207748" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{87AD3F14-AA58-44D6-92E7-AA23128CE4D4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2168764" y="783953"/>
+          <a:ext cx="156705" cy="1567057"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1567057"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="156705" y="1567057"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BF23B86A-2C09-4DB6-B674-4344C4F4BCCA}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2325470" y="1959246"/>
+          <a:ext cx="1253646" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Calculate Profit and Slippage</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2348419" y="1982195"/>
+        <a:ext cx="1207748" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F22B1D3B-FC92-4F16-939A-1D7E6A444F92}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3970880" y="424"/>
+          <a:ext cx="1567057" cy="783528"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="30480" tIns="20320" rIns="30480" bIns="20320" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="711200">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" kern="1200"/>
+            <a:t>Formulate Prescriptions</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1600" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3993829" y="23373"/>
+        <a:ext cx="1521159" cy="737630"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -1791,7 +7235,2659 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="7000"/>
+    <dgm:cat type="list" pri="23000"/>
+    <dgm:cat type="relationship" pri="15000"/>
+    <dgm:cat type="convert" pri="7000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="41"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="43" srcId="4" destId="41" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" forName="rootText" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="childText" op="equ" val="65"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="childText" refType="w" refFor="des" refForName="rootComposite" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="childText" refType="h" refFor="des" refForName="rootComposite"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite" fact="0.25"/>
+      <dgm:constr type="sibSp" for="des" forName="childShape" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+      <dgm:constr type="sp" for="des" forName="root" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node" cnt="1">
+        <dgm:layoutNode name="root">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tL"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tR"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="alignOff" val="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText" styleLbl="node1">
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector" moveWith="rootText">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" hideGeom="1">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="childShape">
+            <dgm:alg type="hierChild">
+              <dgm:param type="chAlign" val="l"/>
+              <dgm:param type="linDir" val="fromT"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="Name11" axis="ch">
+              <dgm:forEach name="Name12" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="Name13">
+                  <dgm:choose name="Name14">
+                    <dgm:if name="Name15" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name16">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name17" axis="self" ptType="node">
+                <dgm:layoutNode name="childText" styleLbl="bgAcc1">
+                  <dgm:varLst>
+                    <dgm:bulletEnabled val="1"/>
+                  </dgm:varLst>
+                  <dgm:alg type="tx"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                    <dgm:adjLst>
+                      <dgm:adj idx="1" val="0.1"/>
+                    </dgm:adjLst>
+                  </dgm:shape>
+                  <dgm:presOf axis="self desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst>
+                    <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                  </dgm:ruleLst>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="7000"/>
+    <dgm:cat type="list" pri="23000"/>
+    <dgm:cat type="relationship" pri="15000"/>
+    <dgm:cat type="convert" pri="7000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="41"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="43" srcId="4" destId="41" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" forName="rootText" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="childText" op="equ" val="65"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="childText" refType="w" refFor="des" refForName="rootComposite" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="childText" refType="h" refFor="des" refForName="rootComposite"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite" fact="0.25"/>
+      <dgm:constr type="sibSp" for="des" forName="childShape" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+      <dgm:constr type="sp" for="des" forName="root" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node" cnt="1">
+        <dgm:layoutNode name="root">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tL"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tR"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="alignOff" val="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText" styleLbl="node1">
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector" moveWith="rootText">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" hideGeom="1">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="childShape">
+            <dgm:alg type="hierChild">
+              <dgm:param type="chAlign" val="l"/>
+              <dgm:param type="linDir" val="fromT"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="Name11" axis="ch">
+              <dgm:forEach name="Name12" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="Name13">
+                  <dgm:choose name="Name14">
+                    <dgm:if name="Name15" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name16">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name17" axis="self" ptType="node">
+                <dgm:layoutNode name="childText" styleLbl="bgAcc1">
+                  <dgm:varLst>
+                    <dgm:bulletEnabled val="1"/>
+                  </dgm:varLst>
+                  <dgm:alg type="tx"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                    <dgm:adjLst>
+                      <dgm:adj idx="1" val="0.1"/>
+                    </dgm:adjLst>
+                  </dgm:shape>
+                  <dgm:presOf axis="self desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst>
+                    <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                  </dgm:ruleLst>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -2858,6 +10954,190 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId1" r:lo="rId2" r:qs="rId3" r:cs="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF6D92A-3F45-4837-5FB1-755915C13E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476875" y="2571750"/>
+          <a:ext cx="38100" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266825" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEED810D-2FCD-7CCD-A2E3-76D29E31F1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981575" y="3162299"/>
+          <a:ext cx="1266825" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Translation Layer</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagram 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E598BB7A-2ED1-55D6-9BCF-4725FF5D14B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId6" r:lo="rId7" r:qs="rId8" r:cs="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagram 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE226C2B-ABFC-6535-4731-DAD896D06273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId11" r:lo="rId12" r:qs="rId13" r:cs="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3163,10 +11443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D766006-7E30-4DDE-857D-644C6391CA3B}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3187,6 +11467,21 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/project_morbius/pm_order_flow.xlsx
+++ b/project_morbius/pm_order_flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\project_morbius\project_morbius\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CCADA66-8D88-41D8-91A9-1628305ECD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB7BEC9-FB3C-4DFF-8632-CA2F88362464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3765" windowWidth="29040" windowHeight="15840" xr2:uid="{FEC92D2C-8508-4B31-A66A-F6692FFF9B7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FEC92D2C-8508-4B31-A66A-F6692FFF9B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Project Morbius Process Flow</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Trade Test</t>
+  </si>
+  <si>
+    <t>Stage 2 - Pairs Trading</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1608,753 @@
 </file>
 
 <file path=xl/diagrams/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="accent1" pri="11200"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="60000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:alpha val="90000"/>
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent1">
+        <a:tint val="60000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
+<file path=xl/diagrams/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -3983,6 +4733,641 @@
 </dgm:dataModel>
 </file>
 
+<file path=xl/diagrams/data4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3" loCatId="hierarchy" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1" qsCatId="simple" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/accent1_2" csCatId="accent1" phldr="1"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Screen for 2 candidate stocks</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4997EE32-04BB-46E9-A8CB-D3614EE06C08}" type="parTrans" cxnId="{45816304-4A90-44E9-9912-72A0A4BFDD17}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{24EECF7C-EFA2-49F7-8FD8-2091CFBE445C}" type="sibTrans" cxnId="{45816304-4A90-44E9-9912-72A0A4BFDD17}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{26FB135A-B404-4E10-861B-88ADCAF4266E}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>x criteria</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{60214CC3-84BD-495C-B0A6-F6F4A40DB64A}" type="parTrans" cxnId="{3B7A4256-C2E5-4664-A75B-2CFBCE196CB4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B4FB96BA-3227-4F11-A8F0-75C695EB444D}" type="sibTrans" cxnId="{3B7A4256-C2E5-4664-A75B-2CFBCE196CB4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8FF60D66-8570-4486-BAD1-63C6BC95B057}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>bruteforce</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DCA21277-7621-412C-A8CA-6FC578F51011}" type="parTrans" cxnId="{607533F0-EFCA-47A5-81BD-C3802D4CB908}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0AF93029-134C-40CE-A9A2-EA35B0A71DBB}" type="sibTrans" cxnId="{607533F0-EFCA-47A5-81BD-C3802D4CB908}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Test both for stationarity</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{650020B9-DB37-4867-A6A8-4BE51100033B}" type="parTrans" cxnId="{B5A8BC4C-CEA7-4625-A594-5395F5B6CF6F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6CDFA299-9B59-4899-9529-BFB0E950B923}" type="sibTrans" cxnId="{B5A8BC4C-CEA7-4625-A594-5395F5B6CF6F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C3B1988B-CBFC-4592-9063-B0A60881B930}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Cure both by differencing to x order</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{87CE9753-C96A-4442-B2A7-680A6364CA58}" type="parTrans" cxnId="{D3C5AA2E-C2FF-40F8-9F26-48B5FC9215C3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38D9571D-0784-4C18-BA8B-2427641964E3}" type="sibTrans" cxnId="{D3C5AA2E-C2FF-40F8-9F26-48B5FC9215C3}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Check P-value for significant differencing</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AF90B767-80C7-432F-A89C-42D9D53C8834}" type="parTrans" cxnId="{3FFFEB78-C78C-49D0-9EF2-73C66005FC02}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EB80EE27-308A-4FA8-BB1E-7F1652538FE6}" type="sibTrans" cxnId="{3FFFEB78-C78C-49D0-9EF2-73C66005FC02}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Cointegration Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FAA317EF-E42A-4885-B501-BF60E2F51400}" type="parTrans" cxnId="{AF614DA5-ED23-476D-ADC6-E993D47EEE45}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C63DFF28-5037-4B71-B3B5-8953B2212820}" type="sibTrans" cxnId="{AF614DA5-ED23-476D-ADC6-E993D47EEE45}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8A46A3B7-C763-4D0F-8C4F-846420ECFFC2}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If same proceed, if not dump</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1878D347-3F2D-4102-B245-828A0CC5C43B}" type="parTrans" cxnId="{80C3B610-393B-49AF-A30E-5AAD295AA239}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{AFDDAC53-3A8A-43FB-944C-CDF04EB65966}" type="sibTrans" cxnId="{80C3B610-393B-49AF-A30E-5AAD295AA239}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{62AFC473-C446-4819-9259-43BC8B43BC00}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>If p-val...</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A7A0F1A4-F561-4D89-B37F-1E885D006F60}" type="parTrans" cxnId="{06A2E23B-25B0-43C0-B9DF-7D9C96F5C14F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{02DD8A00-A41F-4AC0-9BDD-5BBA463634B4}" type="sibTrans" cxnId="{06A2E23B-25B0-43C0-B9DF-7D9C96F5C14F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>X criteria to ensure forecast is predictive future</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3BE71D44-D01A-46E8-BF29-B84900028741}" type="parTrans" cxnId="{6AD88881-3E51-4161-AC6B-131D8548B4B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{982791ED-EE3A-4A22-9DB3-A58D6DE20470}" type="sibTrans" cxnId="{6AD88881-3E51-4161-AC6B-131D8548B4B7}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="bg-BG"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" type="pres">
+      <dgm:prSet presAssocID="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" presName="diagram" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="1"/>
+          <dgm:dir/>
+          <dgm:animOne val="branch"/>
+          <dgm:animLvl val="lvl"/>
+          <dgm:resizeHandles/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DDE825F5-0322-4A2C-8CE7-710DE9EBC7F6}" type="pres">
+      <dgm:prSet presAssocID="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A199BBD6-56FD-4D4B-9C5F-6D8D5D291F60}" type="pres">
+      <dgm:prSet presAssocID="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{528DE460-1E28-4494-B25D-A3BD73296570}" type="pres">
+      <dgm:prSet presAssocID="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" presName="rootText" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{09E6A6EB-CD4C-4740-A589-97AD90C09E59}" type="pres">
+      <dgm:prSet presAssocID="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6B44E87E-70D9-448B-871E-ACDBEABEA717}" type="pres">
+      <dgm:prSet presAssocID="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9EA2A74A-09F2-4DEB-8A16-946828DF6C6E}" type="pres">
+      <dgm:prSet presAssocID="{60214CC3-84BD-495C-B0A6-F6F4A40DB64A}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1660CD49-D459-4781-9638-1E97CC0114A6}" type="pres">
+      <dgm:prSet presAssocID="{26FB135A-B404-4E10-861B-88ADCAF4266E}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="0" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5074F93B-67C8-44EE-8C2F-12C7A6573B68}" type="pres">
+      <dgm:prSet presAssocID="{DCA21277-7621-412C-A8CA-6FC578F51011}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{747E4B45-20CD-4288-9286-2E47688AADBB}" type="pres">
+      <dgm:prSet presAssocID="{8FF60D66-8570-4486-BAD1-63C6BC95B057}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="1" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{73955CCE-3095-430C-9709-A109D92EE710}" type="pres">
+      <dgm:prSet presAssocID="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6975AB2C-B31E-4BAC-B671-360847C069B5}" type="pres">
+      <dgm:prSet presAssocID="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{80C09D3D-6668-45C3-A773-A98ABF145347}" type="pres">
+      <dgm:prSet presAssocID="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" presName="rootText" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{65D63A64-11C9-4EF2-8243-96454C89E97E}" type="pres">
+      <dgm:prSet presAssocID="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BE4C257B-249D-4214-A34C-82A018E27FDE}" type="pres">
+      <dgm:prSet presAssocID="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F79FE8F8-F889-49AB-B1E4-D97E7C93543D}" type="pres">
+      <dgm:prSet presAssocID="{87CE9753-C96A-4442-B2A7-680A6364CA58}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C01FCEC5-378C-40AF-816A-E63EA32EF740}" type="pres">
+      <dgm:prSet presAssocID="{C3B1988B-CBFC-4592-9063-B0A60881B930}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="2" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{44B6884E-CFD3-4D1F-AD6D-54369E2E23BA}" type="pres">
+      <dgm:prSet presAssocID="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B3CFA645-7721-49D9-AC56-DAB287E89E8E}" type="pres">
+      <dgm:prSet presAssocID="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{28C93417-C016-48B7-AC71-2DA5D9EB586D}" type="pres">
+      <dgm:prSet presAssocID="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" presName="rootText" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8CA29E5B-0BA8-41B9-83EC-806C88F9E1B7}" type="pres">
+      <dgm:prSet presAssocID="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D3EA3A64-6F20-427A-AE77-EA09C56A8F1D}" type="pres">
+      <dgm:prSet presAssocID="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E1778CE1-B9A2-4E84-8A0D-51182BF54852}" type="pres">
+      <dgm:prSet presAssocID="{1878D347-3F2D-4102-B245-828A0CC5C43B}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DEF8742D-0F50-45D0-83E3-41F0841F8DC0}" type="pres">
+      <dgm:prSet presAssocID="{8A46A3B7-C763-4D0F-8C4F-846420ECFFC2}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="3" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6D57597E-B72D-4C7A-BB0A-40C0A68EC713}" type="pres">
+      <dgm:prSet presAssocID="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1622BE5A-E3F9-4AED-B6FB-6C007DCFD7C5}" type="pres">
+      <dgm:prSet presAssocID="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D6B01640-D2BD-40F5-AA8F-4E29C0032112}" type="pres">
+      <dgm:prSet presAssocID="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" presName="rootText" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="5" custLinFactNeighborX="-1408"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0AAD1A49-B5CA-4231-A486-E6378FBF3393}" type="pres">
+      <dgm:prSet presAssocID="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="3" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3338D736-690E-41E3-BBF8-845A14AFDB0D}" type="pres">
+      <dgm:prSet presAssocID="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B5F0A462-AD43-4C90-B213-353D74849575}" type="pres">
+      <dgm:prSet presAssocID="{A7A0F1A4-F561-4D89-B37F-1E885D006F60}" presName="Name13" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA64EC03-D566-49B5-BAF4-819EB9A09DC8}" type="pres">
+      <dgm:prSet presAssocID="{62AFC473-C446-4819-9259-43BC8B43BC00}" presName="childText" presStyleLbl="bgAcc1" presStyleIdx="4" presStyleCnt="5">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0B45EE39-B0B9-4E94-AB7E-8E33842FD7AD}" type="pres">
+      <dgm:prSet presAssocID="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" presName="root" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{72A57B35-FE71-4686-AA05-E2AC7F8DCB19}" type="pres">
+      <dgm:prSet presAssocID="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{327FAE58-55E5-4A67-9EF6-1A3366895BD1}" type="pres">
+      <dgm:prSet presAssocID="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" presName="rootText" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{204C0F4D-19CD-4636-9923-9D8BCD2F0DE0}" type="pres">
+      <dgm:prSet presAssocID="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" presName="rootConnector" presStyleLbl="node1" presStyleIdx="4" presStyleCnt="5"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FE23516D-6604-4799-A5FB-A60D3E163195}" type="pres">
+      <dgm:prSet presAssocID="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" presName="childShape" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{32D50C01-C1B4-474B-8E55-666CF5C6D3A7}" type="presOf" srcId="{26FB135A-B404-4E10-861B-88ADCAF4266E}" destId="{1660CD49-D459-4781-9638-1E97CC0114A6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{85B69A03-67B2-4704-A521-249BFEA852A1}" type="presOf" srcId="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" destId="{204C0F4D-19CD-4636-9923-9D8BCD2F0DE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{45816304-4A90-44E9-9912-72A0A4BFDD17}" srcId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" destId="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" srcOrd="0" destOrd="0" parTransId="{4997EE32-04BB-46E9-A8CB-D3614EE06C08}" sibTransId="{24EECF7C-EFA2-49F7-8FD8-2091CFBE445C}"/>
+    <dgm:cxn modelId="{80C3B610-393B-49AF-A30E-5AAD295AA239}" srcId="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" destId="{8A46A3B7-C763-4D0F-8C4F-846420ECFFC2}" srcOrd="0" destOrd="0" parTransId="{1878D347-3F2D-4102-B245-828A0CC5C43B}" sibTransId="{AFDDAC53-3A8A-43FB-944C-CDF04EB65966}"/>
+    <dgm:cxn modelId="{1049EE28-9AD6-4557-BC1B-F90F41B4742D}" type="presOf" srcId="{60214CC3-84BD-495C-B0A6-F6F4A40DB64A}" destId="{9EA2A74A-09F2-4DEB-8A16-946828DF6C6E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D3C5AA2E-C2FF-40F8-9F26-48B5FC9215C3}" srcId="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" destId="{C3B1988B-CBFC-4592-9063-B0A60881B930}" srcOrd="0" destOrd="0" parTransId="{87CE9753-C96A-4442-B2A7-680A6364CA58}" sibTransId="{38D9571D-0784-4C18-BA8B-2427641964E3}"/>
+    <dgm:cxn modelId="{6ACBD52F-2097-4A20-801E-80C70B31B4E3}" type="presOf" srcId="{A7A0F1A4-F561-4D89-B37F-1E885D006F60}" destId="{B5F0A462-AD43-4C90-B213-353D74849575}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CD0C5535-0AA6-463E-A6FA-79AA10E4CA3F}" type="presOf" srcId="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" destId="{0AAD1A49-B5CA-4231-A486-E6378FBF3393}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{06A2E23B-25B0-43C0-B9DF-7D9C96F5C14F}" srcId="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" destId="{62AFC473-C446-4819-9259-43BC8B43BC00}" srcOrd="0" destOrd="0" parTransId="{A7A0F1A4-F561-4D89-B37F-1E885D006F60}" sibTransId="{02DD8A00-A41F-4AC0-9BDD-5BBA463634B4}"/>
+    <dgm:cxn modelId="{1428663C-A009-475D-A1E4-6EED838D6057}" type="presOf" srcId="{1878D347-3F2D-4102-B245-828A0CC5C43B}" destId="{E1778CE1-B9A2-4E84-8A0D-51182BF54852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{1028435C-F105-4D45-A1BA-E574AAD4523C}" type="presOf" srcId="{DCA21277-7621-412C-A8CA-6FC578F51011}" destId="{5074F93B-67C8-44EE-8C2F-12C7A6573B68}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{12484943-AC56-47DB-8706-701351441F50}" type="presOf" srcId="{62AFC473-C446-4819-9259-43BC8B43BC00}" destId="{FA64EC03-D566-49B5-BAF4-819EB9A09DC8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{B5A8BC4C-CEA7-4625-A594-5395F5B6CF6F}" srcId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" destId="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" srcOrd="1" destOrd="0" parTransId="{650020B9-DB37-4867-A6A8-4BE51100033B}" sibTransId="{6CDFA299-9B59-4899-9529-BFB0E950B923}"/>
+    <dgm:cxn modelId="{C8B4CE4D-0447-4330-A6E7-28E4C360C72B}" type="presOf" srcId="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" destId="{09E6A6EB-CD4C-4740-A589-97AD90C09E59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3B7A4256-C2E5-4664-A75B-2CFBCE196CB4}" srcId="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" destId="{26FB135A-B404-4E10-861B-88ADCAF4266E}" srcOrd="0" destOrd="0" parTransId="{60214CC3-84BD-495C-B0A6-F6F4A40DB64A}" sibTransId="{B4FB96BA-3227-4F11-A8F0-75C695EB444D}"/>
+    <dgm:cxn modelId="{37A75B57-3F9C-4E3B-B54A-C8993A7381D2}" type="presOf" srcId="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" destId="{D6B01640-D2BD-40F5-AA8F-4E29C0032112}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3FFFEB78-C78C-49D0-9EF2-73C66005FC02}" srcId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" destId="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" srcOrd="2" destOrd="0" parTransId="{AF90B767-80C7-432F-A89C-42D9D53C8834}" sibTransId="{EB80EE27-308A-4FA8-BB1E-7F1652538FE6}"/>
+    <dgm:cxn modelId="{6AD88881-3E51-4161-AC6B-131D8548B4B7}" srcId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" destId="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" srcOrd="4" destOrd="0" parTransId="{3BE71D44-D01A-46E8-BF29-B84900028741}" sibTransId="{982791ED-EE3A-4A22-9DB3-A58D6DE20470}"/>
+    <dgm:cxn modelId="{84D00F9A-FBD8-4852-B3FE-31346B0747CC}" type="presOf" srcId="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" destId="{65D63A64-11C9-4EF2-8243-96454C89E97E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{AF614DA5-ED23-476D-ADC6-E993D47EEE45}" srcId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" destId="{3F8A226E-EA42-4AD4-AA49-A4A3D40CEA00}" srcOrd="3" destOrd="0" parTransId="{FAA317EF-E42A-4885-B501-BF60E2F51400}" sibTransId="{C63DFF28-5037-4B71-B3B5-8953B2212820}"/>
+    <dgm:cxn modelId="{8ABE2AA8-1419-4ED6-BB57-6CCC3C6C8D5D}" type="presOf" srcId="{E101D2E7-A7F3-4C17-AC00-EBB9A5AFB075}" destId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A3DF24B0-C01F-4789-AF36-043BEBD0DF9C}" type="presOf" srcId="{87CE9753-C96A-4442-B2A7-680A6364CA58}" destId="{F79FE8F8-F889-49AB-B1E4-D97E7C93543D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{007663B6-A854-4BA4-8982-05752EF329FB}" type="presOf" srcId="{8FF60D66-8570-4486-BAD1-63C6BC95B057}" destId="{747E4B45-20CD-4288-9286-2E47688AADBB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{26B335BB-EAF5-420A-AB6D-A86ED5D5E7D7}" type="presOf" srcId="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" destId="{528DE460-1E28-4494-B25D-A3BD73296570}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{5500E7BD-90E4-4894-A4FA-195DECF833E7}" type="presOf" srcId="{A8EC609F-6D72-4F67-A2B0-6033250EDFAF}" destId="{80C09D3D-6668-45C3-A773-A98ABF145347}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{AAC6D1CE-1AFF-45D0-AA8C-A5AB50D68B52}" type="presOf" srcId="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" destId="{28C93417-C016-48B7-AC71-2DA5D9EB586D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{0E693CDE-0291-410D-8D51-460A956C4BF0}" type="presOf" srcId="{8A46A3B7-C763-4D0F-8C4F-846420ECFFC2}" destId="{DEF8742D-0F50-45D0-83E3-41F0841F8DC0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{58C067E0-EC04-46B8-87A0-6259FA9A36BA}" type="presOf" srcId="{53632B65-F78F-41B6-9DE4-F9D7A0D91109}" destId="{8CA29E5B-0BA8-41B9-83EC-806C88F9E1B7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8192F2E1-D88E-44E0-9068-1ADE5529776A}" type="presOf" srcId="{842B6122-2ABF-45EB-BF3F-B05D7691B9BD}" destId="{327FAE58-55E5-4A67-9EF6-1A3366895BD1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{607533F0-EFCA-47A5-81BD-C3802D4CB908}" srcId="{2B8AD30E-7926-44D0-9333-2FB3D50B69D3}" destId="{8FF60D66-8570-4486-BAD1-63C6BC95B057}" srcOrd="1" destOrd="0" parTransId="{DCA21277-7621-412C-A8CA-6FC578F51011}" sibTransId="{0AF93029-134C-40CE-A9A2-EA35B0A71DBB}"/>
+    <dgm:cxn modelId="{942138FB-8B99-4BF6-962F-A63815C72B57}" type="presOf" srcId="{C3B1988B-CBFC-4592-9063-B0A60881B930}" destId="{C01FCEC5-378C-40AF-816A-E63EA32EF740}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{69FC0FF9-72BA-4E6A-9A5B-9DCE9C336944}" type="presParOf" srcId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" destId="{DDE825F5-0322-4A2C-8CE7-710DE9EBC7F6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{11BCABDC-42C8-435C-8457-5597538D5C42}" type="presParOf" srcId="{DDE825F5-0322-4A2C-8CE7-710DE9EBC7F6}" destId="{A199BBD6-56FD-4D4B-9C5F-6D8D5D291F60}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{AA29C8C4-E6A4-46F7-BD35-A49EEE6BF525}" type="presParOf" srcId="{A199BBD6-56FD-4D4B-9C5F-6D8D5D291F60}" destId="{528DE460-1E28-4494-B25D-A3BD73296570}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CDB9905C-2447-40E1-BF40-CF91954325C0}" type="presParOf" srcId="{A199BBD6-56FD-4D4B-9C5F-6D8D5D291F60}" destId="{09E6A6EB-CD4C-4740-A589-97AD90C09E59}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{648B5361-4FD7-4609-8D11-2C6E76B23F71}" type="presParOf" srcId="{DDE825F5-0322-4A2C-8CE7-710DE9EBC7F6}" destId="{6B44E87E-70D9-448B-871E-ACDBEABEA717}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{6F6867BF-7800-4F38-B757-415B882BE4BD}" type="presParOf" srcId="{6B44E87E-70D9-448B-871E-ACDBEABEA717}" destId="{9EA2A74A-09F2-4DEB-8A16-946828DF6C6E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{92CEEB29-7F4F-44D9-BB73-27ADF5133B22}" type="presParOf" srcId="{6B44E87E-70D9-448B-871E-ACDBEABEA717}" destId="{1660CD49-D459-4781-9638-1E97CC0114A6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F3A34B68-B2AC-4FC3-A2F7-0A693FB4B3D0}" type="presParOf" srcId="{6B44E87E-70D9-448B-871E-ACDBEABEA717}" destId="{5074F93B-67C8-44EE-8C2F-12C7A6573B68}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3BEE97B2-380B-452A-87C0-EC826CB6B36C}" type="presParOf" srcId="{6B44E87E-70D9-448B-871E-ACDBEABEA717}" destId="{747E4B45-20CD-4288-9286-2E47688AADBB}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{4E464027-B2CD-436E-B8C8-810E14C7BAF4}" type="presParOf" srcId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" destId="{73955CCE-3095-430C-9709-A109D92EE710}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{92E8DEA6-02F5-47E9-9FB8-604223059A65}" type="presParOf" srcId="{73955CCE-3095-430C-9709-A109D92EE710}" destId="{6975AB2C-B31E-4BAC-B671-360847C069B5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{F131E2C3-C088-4454-BC53-76D2B2B5BB8A}" type="presParOf" srcId="{6975AB2C-B31E-4BAC-B671-360847C069B5}" destId="{80C09D3D-6668-45C3-A773-A98ABF145347}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{937D4E57-8415-4F47-888A-0644CE4BA45B}" type="presParOf" srcId="{6975AB2C-B31E-4BAC-B671-360847C069B5}" destId="{65D63A64-11C9-4EF2-8243-96454C89E97E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2E3EE23F-2DEF-4365-A4BB-92A10E19F143}" type="presParOf" srcId="{73955CCE-3095-430C-9709-A109D92EE710}" destId="{BE4C257B-249D-4214-A34C-82A018E27FDE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{29FF1042-F1F2-45B4-A237-26211123A7E9}" type="presParOf" srcId="{BE4C257B-249D-4214-A34C-82A018E27FDE}" destId="{F79FE8F8-F889-49AB-B1E4-D97E7C93543D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{3AFC8A1E-CBDC-4D3B-9494-F42D3577CA27}" type="presParOf" srcId="{BE4C257B-249D-4214-A34C-82A018E27FDE}" destId="{C01FCEC5-378C-40AF-816A-E63EA32EF740}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{7F41B6C8-078D-449F-A911-2BC1BE6B638C}" type="presParOf" srcId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" destId="{44B6884E-CFD3-4D1F-AD6D-54369E2E23BA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{DE306E40-FE88-4FBE-B7A6-980556057AD2}" type="presParOf" srcId="{44B6884E-CFD3-4D1F-AD6D-54369E2E23BA}" destId="{B3CFA645-7721-49D9-AC56-DAB287E89E8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CF833717-70F6-498D-B864-D2FFA66F631E}" type="presParOf" srcId="{B3CFA645-7721-49D9-AC56-DAB287E89E8E}" destId="{28C93417-C016-48B7-AC71-2DA5D9EB586D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{920907A6-8327-43B8-ABB8-8ADB50CC2C37}" type="presParOf" srcId="{B3CFA645-7721-49D9-AC56-DAB287E89E8E}" destId="{8CA29E5B-0BA8-41B9-83EC-806C88F9E1B7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{09581FE7-717F-42DE-9045-2FC866F884FD}" type="presParOf" srcId="{44B6884E-CFD3-4D1F-AD6D-54369E2E23BA}" destId="{D3EA3A64-6F20-427A-AE77-EA09C56A8F1D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{06EF2AD9-2848-4EAC-A68F-637DC38BE387}" type="presParOf" srcId="{D3EA3A64-6F20-427A-AE77-EA09C56A8F1D}" destId="{E1778CE1-B9A2-4E84-8A0D-51182BF54852}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{BA81B47D-2306-4EE2-8BAD-AFDFAB87779D}" type="presParOf" srcId="{D3EA3A64-6F20-427A-AE77-EA09C56A8F1D}" destId="{DEF8742D-0F50-45D0-83E3-41F0841F8DC0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{55852969-6EC1-49C2-A51F-9378C8367C54}" type="presParOf" srcId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" destId="{6D57597E-B72D-4C7A-BB0A-40C0A68EC713}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{FD362D8E-D59D-4E29-8AE3-7A235AA5C394}" type="presParOf" srcId="{6D57597E-B72D-4C7A-BB0A-40C0A68EC713}" destId="{1622BE5A-E3F9-4AED-B6FB-6C007DCFD7C5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{90015948-B4BD-47C7-811A-F83F1B3A652A}" type="presParOf" srcId="{1622BE5A-E3F9-4AED-B6FB-6C007DCFD7C5}" destId="{D6B01640-D2BD-40F5-AA8F-4E29C0032112}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{D7F57EB9-669B-4846-8537-C7682DB62151}" type="presParOf" srcId="{1622BE5A-E3F9-4AED-B6FB-6C007DCFD7C5}" destId="{0AAD1A49-B5CA-4231-A486-E6378FBF3393}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{8D7FE900-80E8-49A8-907A-92437D8CA74C}" type="presParOf" srcId="{6D57597E-B72D-4C7A-BB0A-40C0A68EC713}" destId="{3338D736-690E-41E3-BBF8-845A14AFDB0D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{EF7EFD10-BB9B-44EB-9C71-2AEC97DBA412}" type="presParOf" srcId="{3338D736-690E-41E3-BBF8-845A14AFDB0D}" destId="{B5F0A462-AD43-4C90-B213-353D74849575}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A715B778-D7C0-48CA-9E02-B41B2FA111E1}" type="presParOf" srcId="{3338D736-690E-41E3-BBF8-845A14AFDB0D}" destId="{FA64EC03-D566-49B5-BAF4-819EB9A09DC8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{9471C5B0-03B6-464D-AEF2-304F8C839EF0}" type="presParOf" srcId="{D4A4D681-8EAA-47AC-AB61-0806A0CEDAE5}" destId="{0B45EE39-B0B9-4E94-AB7E-8E33842FD7AD}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{35925FCA-347A-43A7-B640-A9F166054793}" type="presParOf" srcId="{0B45EE39-B0B9-4E94-AB7E-8E33842FD7AD}" destId="{72A57B35-FE71-4686-AA05-E2AC7F8DCB19}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{A0E05132-3381-4DAA-8E71-DD106F5D6ADC}" type="presParOf" srcId="{72A57B35-FE71-4686-AA05-E2AC7F8DCB19}" destId="{327FAE58-55E5-4A67-9EF6-1A3366895BD1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{CA46B964-F747-48FD-92DB-BD62925FEA96}" type="presParOf" srcId="{72A57B35-FE71-4686-AA05-E2AC7F8DCB19}" destId="{204C0F4D-19CD-4636-9923-9D8BCD2F0DE0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+    <dgm:cxn modelId="{2EA2315D-C60D-4391-A720-7D51F57E501F}" type="presParOf" srcId="{0B45EE39-B0B9-4E94-AB7E-8E33842FD7AD}" destId="{FE23516D-6604-4799-A5FB-A60D3E163195}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId20" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
 <file path=xl/diagrams/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dsp:spTree>
@@ -7083,6 +8468,1118 @@
       <dsp:txXfrm>
         <a:off x="3993829" y="23373"/>
         <a:ext cx="1521159" cy="737630"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{528DE460-1E28-4494-B25D-A3BD73296570}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3967" y="187886"/>
+          <a:ext cx="1352815" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24765" tIns="16510" rIns="24765" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:t>Screen for 2 candidate stocks</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="23778" y="207697"/>
+        <a:ext cx="1313193" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{9EA2A74A-09F2-4DEB-8A16-946828DF6C6E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="139248" y="864294"/>
+          <a:ext cx="135281" cy="507305"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="507305"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="135281" y="507305"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{1660CD49-D459-4781-9638-1E97CC0114A6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="274530" y="1033396"/>
+          <a:ext cx="1082252" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>x criteria</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="294341" y="1053207"/>
+        <a:ext cx="1042630" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{5074F93B-67C8-44EE-8C2F-12C7A6573B68}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="139248" y="864294"/>
+          <a:ext cx="135281" cy="1352815"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="1352815"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="135281" y="1352815"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{747E4B45-20CD-4288-9286-2E47688AADBB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="274530" y="1878905"/>
+          <a:ext cx="1082252" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>bruteforce</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="294341" y="1898716"/>
+        <a:ext cx="1042630" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{80C09D3D-6668-45C3-A773-A98ABF145347}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1694986" y="187886"/>
+          <a:ext cx="1352815" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24765" tIns="16510" rIns="24765" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:t>Test both for stationarity</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1714797" y="207697"/>
+        <a:ext cx="1313193" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F79FE8F8-F889-49AB-B1E4-D97E7C93543D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1830267" y="864294"/>
+          <a:ext cx="135281" cy="507305"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="507305"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="135281" y="507305"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C01FCEC5-378C-40AF-816A-E63EA32EF740}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1965549" y="1033396"/>
+          <a:ext cx="1082252" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>Cure both by differencing to x order</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="1985360" y="1053207"/>
+        <a:ext cx="1042630" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{28C93417-C016-48B7-AC71-2DA5D9EB586D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3386004" y="187886"/>
+          <a:ext cx="1352815" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24765" tIns="16510" rIns="24765" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:t>Check P-value for significant differencing</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3405815" y="207697"/>
+        <a:ext cx="1313193" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{E1778CE1-B9A2-4E84-8A0D-51182BF54852}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3521286" y="864294"/>
+          <a:ext cx="135281" cy="507305"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="507305"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="135281" y="507305"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{DEF8742D-0F50-45D0-83E3-41F0841F8DC0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3656567" y="1033396"/>
+          <a:ext cx="1082252" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>If same proceed, if not dump</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="3676378" y="1053207"/>
+        <a:ext cx="1042630" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{D6B01640-D2BD-40F5-AA8F-4E29C0032112}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5057976" y="187886"/>
+          <a:ext cx="1352815" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24765" tIns="16510" rIns="24765" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:t>Cointegration Test</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5077787" y="207697"/>
+        <a:ext cx="1313193" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{B5F0A462-AD43-4C90-B213-353D74849575}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5193257" y="864294"/>
+          <a:ext cx="154329" cy="507305"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="0" y="507305"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="154329" y="507305"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{FA64EC03-D566-49B5-BAF4-819EB9A09DC8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5347586" y="1033396"/>
+          <a:ext cx="1082252" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="90000"/>
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="26670" tIns="17780" rIns="26670" bIns="17780" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" kern="1200"/>
+            <a:t>If p-val...</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1400" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5367397" y="1053207"/>
+        <a:ext cx="1042630" cy="636785"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{327FAE58-55E5-4A67-9EF6-1A3366895BD1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6768042" y="187886"/>
+          <a:ext cx="1352815" cy="676407"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="0"/>
+            <a:satOff val="0"/>
+            <a:lumOff val="0"/>
+            <a:alphaOff val="0"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="24765" tIns="16510" rIns="24765" bIns="16510" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="577850">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" kern="1200"/>
+            <a:t>X criteria to ensure forecast is predictive future</a:t>
+          </a:r>
+          <a:endParaRPr lang="bg-BG" sz="1300" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6787853" y="207697"/>
+        <a:ext cx="1313193" cy="636785"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -7819,6 +10316,298 @@
 </dgm:layoutDef>
 </file>
 
+<file path=xl/diagrams/layout4.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hierarchy3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="hierarchy" pri="7000"/>
+    <dgm:cat type="list" pri="23000"/>
+    <dgm:cat type="relationship" pri="15000"/>
+    <dgm:cat type="convert" pri="7000"/>
+  </dgm:catLst>
+  <dgm:sampData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="11">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="12">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="2">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="21">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+        <dgm:pt modelId="22">
+          <dgm:prSet phldr="1"/>
+        </dgm:pt>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="1" destId="12" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="9" srcId="2" destId="22" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="4" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="5" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="11"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="21"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="31"/>
+        <dgm:pt modelId="4"/>
+        <dgm:pt modelId="41"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+        <dgm:cxn modelId="13" srcId="1" destId="11" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="23" srcId="2" destId="21" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="33" srcId="3" destId="31" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="43" srcId="4" destId="41" srcOrd="0" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="diagram">
+    <dgm:varLst>
+      <dgm:chPref val="1"/>
+      <dgm:dir/>
+      <dgm:animOne val="branch"/>
+      <dgm:animLvl val="lvl"/>
+      <dgm:resizeHandles/>
+    </dgm:varLst>
+    <dgm:choose name="Name0">
+      <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromL"/>
+        </dgm:alg>
+      </dgm:if>
+      <dgm:else name="Name2">
+        <dgm:alg type="hierChild">
+          <dgm:param type="linDir" val="fromR"/>
+        </dgm:alg>
+      </dgm:else>
+    </dgm:choose>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="primFontSz" for="des" forName="rootText" op="equ" val="65"/>
+      <dgm:constr type="primFontSz" for="des" forName="childText" op="equ" val="65"/>
+      <dgm:constr type="w" for="des" forName="rootComposite" refType="w"/>
+      <dgm:constr type="h" for="des" forName="rootComposite" refType="w" fact="0.5"/>
+      <dgm:constr type="w" for="des" forName="childText" refType="w" refFor="des" refForName="rootComposite" fact="0.8"/>
+      <dgm:constr type="h" for="des" forName="childText" refType="h" refFor="des" refForName="rootComposite"/>
+      <dgm:constr type="sibSp" refType="w" refFor="des" refForName="rootComposite" fact="0.25"/>
+      <dgm:constr type="sibSp" for="des" forName="childShape" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+      <dgm:constr type="sp" for="des" forName="root" refType="h" refFor="des" refForName="childText" fact="0.25"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:forEach name="Name3" axis="ch">
+      <dgm:forEach name="Name4" axis="self" ptType="node" cnt="1">
+        <dgm:layoutNode name="root">
+          <dgm:choose name="Name5">
+            <dgm:if name="Name6" func="var" arg="dir" op="equ" val="norm">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tL"/>
+              </dgm:alg>
+            </dgm:if>
+            <dgm:else name="Name7">
+              <dgm:alg type="hierRoot">
+                <dgm:param type="hierAlign" val="tR"/>
+              </dgm:alg>
+            </dgm:else>
+          </dgm:choose>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf/>
+          <dgm:constrLst>
+            <dgm:constr type="alignOff" val="0.2"/>
+          </dgm:constrLst>
+          <dgm:ruleLst/>
+          <dgm:layoutNode name="rootComposite">
+            <dgm:alg type="composite"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf axis="self" ptType="node" cnt="1"/>
+            <dgm:choose name="Name8">
+              <dgm:if name="Name9" func="var" arg="dir" op="equ" val="norm">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="l" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:if>
+              <dgm:else name="Name10">
+                <dgm:constrLst>
+                  <dgm:constr type="l" for="ch" forName="rootText"/>
+                  <dgm:constr type="t" for="ch" forName="rootText"/>
+                  <dgm:constr type="w" for="ch" forName="rootText" refType="w"/>
+                  <dgm:constr type="h" for="ch" forName="rootText" refType="h"/>
+                  <dgm:constr type="r" for="ch" forName="rootConnector" refType="w"/>
+                  <dgm:constr type="t" for="ch" forName="rootConnector"/>
+                  <dgm:constr type="w" for="ch" forName="rootConnector" refType="w" refFor="ch" refForName="rootText" fact="0.2"/>
+                  <dgm:constr type="h" for="ch" forName="rootConnector" refType="h" refFor="ch" refForName="rootText"/>
+                </dgm:constrLst>
+              </dgm:else>
+            </dgm:choose>
+            <dgm:ruleLst/>
+            <dgm:layoutNode name="rootText" styleLbl="node1">
+              <dgm:alg type="tx"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst>
+                <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+              </dgm:constrLst>
+              <dgm:ruleLst>
+                <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+              </dgm:ruleLst>
+            </dgm:layoutNode>
+            <dgm:layoutNode name="rootConnector" moveWith="rootText">
+              <dgm:alg type="sp"/>
+              <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="" hideGeom="1">
+                <dgm:adjLst>
+                  <dgm:adj idx="1" val="0.1"/>
+                </dgm:adjLst>
+              </dgm:shape>
+              <dgm:presOf axis="self" ptType="node" cnt="1"/>
+              <dgm:constrLst/>
+              <dgm:ruleLst/>
+            </dgm:layoutNode>
+          </dgm:layoutNode>
+          <dgm:layoutNode name="childShape">
+            <dgm:alg type="hierChild">
+              <dgm:param type="chAlign" val="l"/>
+              <dgm:param type="linDir" val="fromT"/>
+            </dgm:alg>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+            <dgm:forEach name="Name11" axis="ch">
+              <dgm:forEach name="Name12" axis="self" ptType="parTrans" cnt="1">
+                <dgm:layoutNode name="Name13">
+                  <dgm:choose name="Name14">
+                    <dgm:if name="Name15" func="var" arg="dir" op="equ" val="norm">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midL"/>
+                      </dgm:alg>
+                    </dgm:if>
+                    <dgm:else name="Name16">
+                      <dgm:alg type="conn">
+                        <dgm:param type="dim" val="1D"/>
+                        <dgm:param type="endSty" val="noArr"/>
+                        <dgm:param type="connRout" val="bend"/>
+                        <dgm:param type="srcNode" val="rootConnector"/>
+                        <dgm:param type="begPts" val="bCtr"/>
+                        <dgm:param type="endPts" val="midR"/>
+                      </dgm:alg>
+                    </dgm:else>
+                  </dgm:choose>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="conn" r:blip="">
+                    <dgm:adjLst/>
+                  </dgm:shape>
+                  <dgm:presOf axis="self"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="begPad"/>
+                    <dgm:constr type="endPad"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst/>
+                </dgm:layoutNode>
+              </dgm:forEach>
+              <dgm:forEach name="Name17" axis="self" ptType="node">
+                <dgm:layoutNode name="childText" styleLbl="bgAcc1">
+                  <dgm:varLst>
+                    <dgm:bulletEnabled val="1"/>
+                  </dgm:varLst>
+                  <dgm:alg type="tx"/>
+                  <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+                    <dgm:adjLst>
+                      <dgm:adj idx="1" val="0.1"/>
+                    </dgm:adjLst>
+                  </dgm:shape>
+                  <dgm:presOf axis="self desOrSelf" ptType="node node" st="1 1" cnt="1 0"/>
+                  <dgm:constrLst>
+                    <dgm:constr type="tMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="bMarg" refType="primFontSz" fact="0.1"/>
+                    <dgm:constr type="lMarg" refType="primFontSz" fact="0.15"/>
+                    <dgm:constr type="rMarg" refType="primFontSz" fact="0.15"/>
+                  </dgm:constrLst>
+                  <dgm:ruleLst>
+                    <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+                  </dgm:ruleLst>
+                </dgm:layoutNode>
+              </dgm:forEach>
+            </dgm:forEach>
+          </dgm:layoutNode>
+        </dgm:layoutNode>
+      </dgm:forEach>
+    </dgm:forEach>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
 <file path=xl/diagrams/quickStyle1.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
@@ -9888,6 +12677,1040 @@
 </file>
 
 <file path=xl/diagrams/quickStyle3.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="simple" pri="10100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
+<file path=xl/diagrams/quickStyle4.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/simple1">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -11138,6 +14961,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
           <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId11" r:lo="rId12" r:qs="rId13" r:cs="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590C5243-5814-9953-2AF2-EA6289B94891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId16" r:lo="rId17" r:qs="rId18" r:cs="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11443,10 +15302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D766006-7E30-4DDE-857D-644C6391CA3B}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11482,6 +15341,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
